--- a/miniproject/template/Lectures/Lecture 2.xlsx
+++ b/miniproject/template/Lectures/Lecture 2.xlsx
@@ -40,7 +40,18 @@
     <t>Meaning</t>
   </si>
   <si>
-    <t>Meaning（中文）</t>
+    <r>
+      <t>Meaning</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（中文）</t>
+    </r>
   </si>
   <si>
     <t>level_2</t>
@@ -2749,12 +2760,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="34">
+  <fonts count="33">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -2826,19 +2837,45 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2852,48 +2889,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2906,38 +2921,22 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2959,18 +2958,18 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2981,11 +2980,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="方正书宋_GBK"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="34">
@@ -3009,7 +3015,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3021,7 +3075,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3033,13 +3093,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3051,25 +3153,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3087,103 +3183,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3230,6 +3236,24 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
@@ -3238,8 +3262,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -3260,25 +3286,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -3299,28 +3316,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3329,152 +3335,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="30" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3520,10 +3526,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3850,8 +3853,8 @@
   <sheetPr/>
   <dimension ref="A1:Z281"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="X2" sqref="X2"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66071428571429" defaultRowHeight="11.6"/>
@@ -3937,13 +3940,13 @@
       <c r="U1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="16" t="s">
+      <c r="V1" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="16" t="s">
+      <c r="W1" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="16" t="s">
+      <c r="X1" s="15" t="s">
         <v>23</v>
       </c>
       <c r="Y1" s="5" t="s">
@@ -8985,7 +8988,7 @@
       <c r="H62" s="11" t="s">
         <v>277</v>
       </c>
-      <c r="I62" s="15" t="s">
+      <c r="I62" s="9" t="s">
         <v>278</v>
       </c>
       <c r="J62" s="2">
@@ -9310,7 +9313,7 @@
       <c r="H67" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="I67" s="15" t="s">
+      <c r="I67" s="9" t="s">
         <v>298</v>
       </c>
       <c r="J67" s="2">
@@ -14251,7 +14254,7 @@
       <c r="H142" s="11" t="s">
         <v>606</v>
       </c>
-      <c r="I142" s="15" t="s">
+      <c r="I142" s="9" t="s">
         <v>607</v>
       </c>
       <c r="J142" s="2">
@@ -15605,10 +15608,10 @@
       <c r="F162" s="2" t="s">
         <v>685</v>
       </c>
-      <c r="G162" s="17" t="s">
+      <c r="G162" s="16" t="s">
         <v>686</v>
       </c>
-      <c r="H162" s="17" t="s">
+      <c r="H162" s="16" t="s">
         <v>687</v>
       </c>
       <c r="I162" s="13" t="s">
@@ -18263,7 +18266,7 @@
       <c r="H201" s="11" t="s">
         <v>844</v>
       </c>
-      <c r="I201" s="15" t="s">
+      <c r="I201" s="9" t="s">
         <v>845</v>
       </c>
       <c r="J201" s="2">
@@ -18467,7 +18470,7 @@
       <c r="H204" s="11" t="s">
         <v>856</v>
       </c>
-      <c r="I204" s="15" t="s">
+      <c r="I204" s="9" t="s">
         <v>857</v>
       </c>
       <c r="J204" s="2">

--- a/miniproject/template/Lectures/Lecture 2.xlsx
+++ b/miniproject/template/Lectures/Lecture 2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11400"/>
+    <workbookView windowWidth="28800" windowHeight="11600"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -40,18 +40,7 @@
     <t>Meaning</t>
   </si>
   <si>
-    <r>
-      <t>Meaning</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="方正书宋_GBK"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（中文）</t>
-    </r>
+    <t>Translation</t>
   </si>
   <si>
     <t>level_2</t>
@@ -2765,7 +2754,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="33">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -2851,14 +2840,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -2868,30 +2849,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2912,9 +2869,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2929,7 +2902,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2942,23 +2930,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -2973,25 +2954,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="方正书宋_GBK"/>
-      <charset val="134"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="34">
@@ -3009,7 +2992,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3021,13 +3094,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3039,85 +3154,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3129,67 +3166,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3242,20 +3225,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3267,21 +3247,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3330,150 +3295,168 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="30" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">

--- a/miniproject/template/Lectures/Lecture 2.xlsx
+++ b/miniproject/template/Lectures/Lecture 2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S_AGI\Documents\GitHub\AI_teaching_project\miniproject\template\Lectures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AC94E53-A2B6-4EF2-B467-9F75E2A1B5CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C2989F8-D2A1-4E85-8F52-37F9A7C04CEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Lecture 2" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Lecture 2'!$A$1:$GP$315</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Lecture 2'!$A$1:$GP$202</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3620" uniqueCount="1713">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2492" uniqueCount="1712">
   <si>
     <t>QueationL4ID</t>
   </si>
@@ -3443,9 +3443,6 @@
   </si>
   <si>
     <t>How to say "小鲜肉，(年长女人的)年轻男性情人"?</t>
-  </si>
-  <si>
-    <t>None</t>
   </si>
   <si>
     <t>You are coming</t>
@@ -6399,10 +6396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:GP315"/>
+  <dimension ref="A1:AB202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A202" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D207" sqref="D207"/>
+    <sheetView tabSelected="1" topLeftCell="A289" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A203" sqref="A203:XFD319"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
@@ -6426,67 +6423,67 @@
   <sheetData>
     <row r="1" spans="1:28" s="11" customFormat="1" ht="25.5" customHeight="1">
       <c r="A1" s="4" t="s">
+        <v>1688</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>1689</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>1690</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="7" t="s">
         <v>1691</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>1692</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="8" t="s">
         <v>1693</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>1694</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>1695</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>1696</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="J1" s="9" t="s">
         <v>1697</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="K1" s="9" t="s">
         <v>1698</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="L1" s="9" t="s">
         <v>1699</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="M1" s="9" t="s">
         <v>1700</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="N1" s="9" t="s">
         <v>1701</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="O1" s="9" t="s">
         <v>1702</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="P1" s="9" t="s">
         <v>1703</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="Q1" s="9" t="s">
         <v>1704</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="R1" s="9" t="s">
         <v>1705</v>
       </c>
-      <c r="R1" s="9" t="s">
+      <c r="S1" s="9" t="s">
         <v>1706</v>
       </c>
-      <c r="S1" s="9" t="s">
+      <c r="T1" s="9" t="s">
         <v>1707</v>
       </c>
-      <c r="T1" s="9" t="s">
+      <c r="U1" s="9" t="s">
         <v>1708</v>
-      </c>
-      <c r="U1" s="9" t="s">
-        <v>1709</v>
       </c>
       <c r="V1" s="9" t="s">
         <v>0</v>
@@ -6505,16 +6502,16 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>4</v>
@@ -6567,7 +6564,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>2</v>
@@ -6576,7 +6573,7 @@
         <v>3</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>14</v>
@@ -6629,7 +6626,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>2</v>
@@ -6638,7 +6635,7 @@
         <v>3</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>24</v>
@@ -6668,7 +6665,7 @@
         <v>27</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="Q4" s="3" t="s">
         <v>28</v>
@@ -6680,10 +6677,10 @@
         <v>30</v>
       </c>
       <c r="T4" s="3" t="s">
+        <v>1136</v>
+      </c>
+      <c r="U4" s="3" t="s">
         <v>1137</v>
-      </c>
-      <c r="U4" s="3" t="s">
-        <v>1138</v>
       </c>
     </row>
     <row r="5" spans="1:28" ht="129.6">
@@ -6691,7 +6688,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>2</v>
@@ -6700,7 +6697,7 @@
         <v>3</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>31</v>
@@ -6730,7 +6727,7 @@
         <v>34</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="6" spans="1:28" ht="115.2">
@@ -6738,7 +6735,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>2</v>
@@ -6747,10 +6744,10 @@
         <v>3</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>35</v>
@@ -6759,25 +6756,25 @@
         <v>36</v>
       </c>
       <c r="J6" s="1" t="s">
+        <v>1138</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <v>1</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1" t="s">
         <v>1139</v>
       </c>
-      <c r="K6" s="2">
-        <v>0</v>
-      </c>
-      <c r="L6" s="1">
-        <v>1</v>
-      </c>
-      <c r="M6" s="1">
-        <v>0</v>
-      </c>
-      <c r="N6" s="1">
-        <v>0</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>1140</v>
-      </c>
       <c r="P6" s="1" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="V6" s="3" t="s">
         <v>37</v>
@@ -6791,7 +6788,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>2</v>
@@ -6800,7 +6797,7 @@
         <v>39</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>40</v>
@@ -6836,10 +6833,10 @@
         <v>45</v>
       </c>
       <c r="T7" s="3" t="s">
+        <v>1275</v>
+      </c>
+      <c r="U7" s="3" t="s">
         <v>1276</v>
-      </c>
-      <c r="U7" s="3" t="s">
-        <v>1277</v>
       </c>
     </row>
     <row r="8" spans="1:28" ht="129.6">
@@ -6847,7 +6844,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>2</v>
@@ -6856,7 +6853,7 @@
         <v>39</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>46</v>
@@ -6886,7 +6883,7 @@
         <v>49</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="9" spans="1:28" ht="72">
@@ -6894,7 +6891,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>2</v>
@@ -6903,13 +6900,13 @@
         <v>50</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>51</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>52</v>
@@ -6933,22 +6930,22 @@
         <v>53</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="Q9" s="3" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="R9" s="3" t="s">
+        <v>1428</v>
+      </c>
+      <c r="S9" s="3" t="s">
         <v>1429</v>
       </c>
-      <c r="S9" s="3" t="s">
+      <c r="T9" s="3" t="s">
         <v>1430</v>
       </c>
-      <c r="T9" s="3" t="s">
+      <c r="U9" s="3" t="s">
         <v>1431</v>
-      </c>
-      <c r="U9" s="3" t="s">
-        <v>1432</v>
       </c>
     </row>
     <row r="10" spans="1:28" ht="72">
@@ -6956,7 +6953,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>2</v>
@@ -6965,7 +6962,7 @@
         <v>50</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>54</v>
@@ -7001,10 +6998,10 @@
         <v>59</v>
       </c>
       <c r="T10" s="3" t="s">
+        <v>1277</v>
+      </c>
+      <c r="U10" s="3" t="s">
         <v>1278</v>
-      </c>
-      <c r="U10" s="3" t="s">
-        <v>1279</v>
       </c>
       <c r="V10" s="3" t="s">
         <v>60</v>
@@ -7018,7 +7015,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>2</v>
@@ -7027,7 +7024,7 @@
         <v>50</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>62</v>
@@ -7060,13 +7057,13 @@
         <v>66</v>
       </c>
       <c r="S11" s="3" t="s">
+        <v>1279</v>
+      </c>
+      <c r="T11" s="3" t="s">
         <v>1280</v>
       </c>
-      <c r="T11" s="3" t="s">
+      <c r="U11" s="3" t="s">
         <v>1281</v>
-      </c>
-      <c r="U11" s="3" t="s">
-        <v>1282</v>
       </c>
       <c r="V11" s="3" t="s">
         <v>67</v>
@@ -7080,7 +7077,7 @@
         <v>2</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>2</v>
@@ -7089,7 +7086,7 @@
         <v>50</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>69</v>
@@ -7122,13 +7119,13 @@
         <v>73</v>
       </c>
       <c r="S12" s="3" t="s">
+        <v>1283</v>
+      </c>
+      <c r="T12" s="3" t="s">
         <v>1284</v>
       </c>
-      <c r="T12" s="3" t="s">
-        <v>1285</v>
-      </c>
       <c r="U12" s="3" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="V12" s="3" t="s">
         <v>74</v>
@@ -7142,7 +7139,7 @@
         <v>2</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>2</v>
@@ -7151,7 +7148,7 @@
         <v>50</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>76</v>
@@ -7181,7 +7178,7 @@
         <v>79</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="Q13" s="3" t="s">
         <v>80</v>
@@ -7196,7 +7193,7 @@
         <v>70</v>
       </c>
       <c r="U13" s="3" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="V13" s="3" t="s">
         <v>83</v>
@@ -7210,7 +7207,7 @@
         <v>2</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>2</v>
@@ -7219,7 +7216,7 @@
         <v>50</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>85</v>
@@ -7249,7 +7246,7 @@
         <v>88</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>89</v>
@@ -7258,13 +7255,13 @@
         <v>90</v>
       </c>
       <c r="S14" s="3" t="s">
+        <v>1285</v>
+      </c>
+      <c r="T14" s="3" t="s">
         <v>1286</v>
       </c>
-      <c r="T14" s="3" t="s">
+      <c r="U14" s="3" t="s">
         <v>1287</v>
-      </c>
-      <c r="U14" s="3" t="s">
-        <v>1288</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="144">
@@ -7272,7 +7269,7 @@
         <v>2</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>2</v>
@@ -7281,7 +7278,7 @@
         <v>50</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>106</v>
@@ -7317,10 +7314,10 @@
         <v>111</v>
       </c>
       <c r="T15" s="3" t="s">
+        <v>1289</v>
+      </c>
+      <c r="U15" s="3" t="s">
         <v>1290</v>
-      </c>
-      <c r="U15" s="3" t="s">
-        <v>1291</v>
       </c>
       <c r="V15" s="3" t="s">
         <v>112</v>
@@ -7334,7 +7331,7 @@
         <v>2</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>2</v>
@@ -7343,7 +7340,7 @@
         <v>50</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>114</v>
@@ -7379,10 +7376,10 @@
         <v>119</v>
       </c>
       <c r="T16" s="3" t="s">
+        <v>1291</v>
+      </c>
+      <c r="U16" s="3" t="s">
         <v>1292</v>
-      </c>
-      <c r="U16" s="3" t="s">
-        <v>1293</v>
       </c>
     </row>
     <row r="17" spans="1:23" ht="72">
@@ -7390,7 +7387,7 @@
         <v>2</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>2</v>
@@ -7399,7 +7396,7 @@
         <v>50</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>120</v>
@@ -7435,10 +7432,10 @@
         <v>125</v>
       </c>
       <c r="T17" s="3" t="s">
+        <v>1293</v>
+      </c>
+      <c r="U17" s="3" t="s">
         <v>1294</v>
-      </c>
-      <c r="U17" s="3" t="s">
-        <v>1295</v>
       </c>
       <c r="V17" s="3" t="s">
         <v>126</v>
@@ -7452,7 +7449,7 @@
         <v>2</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>2</v>
@@ -7461,7 +7458,7 @@
         <v>50</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>128</v>
@@ -7491,7 +7488,7 @@
         <v>131</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="19" spans="1:23" ht="100.8">
@@ -7499,7 +7496,7 @@
         <v>2</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>2</v>
@@ -7508,13 +7505,13 @@
         <v>50</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>132</v>
@@ -7538,22 +7535,22 @@
         <v>133</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="Q19" s="3" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="R19" s="3" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="S19" s="3" t="s">
+        <v>1436</v>
+      </c>
+      <c r="T19" s="3" t="s">
         <v>1437</v>
       </c>
-      <c r="T19" s="3" t="s">
+      <c r="U19" s="3" t="s">
         <v>1438</v>
-      </c>
-      <c r="U19" s="3" t="s">
-        <v>1439</v>
       </c>
       <c r="V19" s="3" t="s">
         <v>134</v>
@@ -7567,7 +7564,7 @@
         <v>2</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>2</v>
@@ -7576,7 +7573,7 @@
         <v>136</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>137</v>
@@ -7606,7 +7603,7 @@
         <v>140</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="21" spans="1:23" ht="187.2">
@@ -7614,7 +7611,7 @@
         <v>2</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>2</v>
@@ -7623,7 +7620,7 @@
         <v>136</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>141</v>
@@ -7653,7 +7650,7 @@
         <v>144</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="22" spans="1:23" ht="144">
@@ -7661,16 +7658,16 @@
         <v>2</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>136</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>145</v>
@@ -7700,7 +7697,7 @@
         <v>148</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="23" spans="1:23" ht="129.6">
@@ -7708,7 +7705,7 @@
         <v>2</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>2</v>
@@ -7717,7 +7714,7 @@
         <v>136</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>149</v>
@@ -7747,7 +7744,7 @@
         <v>152</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="V23" s="3" t="s">
         <v>153</v>
@@ -7761,7 +7758,7 @@
         <v>2</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>2</v>
@@ -7770,7 +7767,7 @@
         <v>136</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>155</v>
@@ -7803,13 +7800,13 @@
         <v>159</v>
       </c>
       <c r="S24" s="3" t="s">
+        <v>1295</v>
+      </c>
+      <c r="T24" s="3" t="s">
         <v>1296</v>
       </c>
-      <c r="T24" s="3" t="s">
+      <c r="U24" s="3" t="s">
         <v>1297</v>
-      </c>
-      <c r="U24" s="3" t="s">
-        <v>1298</v>
       </c>
       <c r="V24" s="3" t="s">
         <v>160</v>
@@ -7823,7 +7820,7 @@
         <v>2</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>2</v>
@@ -7832,16 +7829,16 @@
         <v>136</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>162</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="J25" s="1">
         <v>0</v>
@@ -7862,16 +7859,16 @@
         <v>163</v>
       </c>
       <c r="R25" s="3" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="S25" s="3" t="s">
+        <v>1298</v>
+      </c>
+      <c r="T25" s="3" t="s">
         <v>1299</v>
       </c>
-      <c r="T25" s="3" t="s">
+      <c r="U25" s="3" t="s">
         <v>1300</v>
-      </c>
-      <c r="U25" s="3" t="s">
-        <v>1301</v>
       </c>
       <c r="V25" s="3" t="s">
         <v>164</v>
@@ -7885,7 +7882,7 @@
         <v>2</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>2</v>
@@ -7894,7 +7891,7 @@
         <v>136</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>166</v>
@@ -7927,13 +7924,13 @@
         <v>170</v>
       </c>
       <c r="S26" s="3" t="s">
+        <v>1301</v>
+      </c>
+      <c r="T26" s="3" t="s">
         <v>1302</v>
       </c>
-      <c r="T26" s="3" t="s">
+      <c r="U26" s="3" t="s">
         <v>1303</v>
-      </c>
-      <c r="U26" s="3" t="s">
-        <v>1304</v>
       </c>
       <c r="V26" s="3" t="s">
         <v>171</v>
@@ -7947,7 +7944,7 @@
         <v>2</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>2</v>
@@ -7956,10 +7953,10 @@
         <v>136</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>173</v>
@@ -7986,22 +7983,22 @@
         <v>175</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="Q27" s="3" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="R27" s="3" t="s">
+        <v>1441</v>
+      </c>
+      <c r="S27" s="3" t="s">
         <v>1442</v>
       </c>
-      <c r="S27" s="3" t="s">
+      <c r="T27" s="3" t="s">
         <v>1443</v>
       </c>
-      <c r="T27" s="3" t="s">
+      <c r="U27" s="3" t="s">
         <v>1444</v>
-      </c>
-      <c r="U27" s="3" t="s">
-        <v>1445</v>
       </c>
     </row>
     <row r="28" spans="1:23" ht="115.2">
@@ -8009,7 +8006,7 @@
         <v>2</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>2</v>
@@ -8018,10 +8015,10 @@
         <v>136</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>176</v>
@@ -8048,22 +8045,22 @@
         <v>178</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="Q28" s="3" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="R28" s="3" t="s">
+        <v>1448</v>
+      </c>
+      <c r="S28" s="3" t="s">
+        <v>1445</v>
+      </c>
+      <c r="T28" s="3" t="s">
         <v>1449</v>
       </c>
-      <c r="S28" s="3" t="s">
-        <v>1446</v>
-      </c>
-      <c r="T28" s="3" t="s">
+      <c r="U28" s="3" t="s">
         <v>1450</v>
-      </c>
-      <c r="U28" s="3" t="s">
-        <v>1451</v>
       </c>
       <c r="V28" s="3" t="s">
         <v>179</v>
@@ -8077,7 +8074,7 @@
         <v>2</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>2</v>
@@ -8086,7 +8083,7 @@
         <v>136</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>181</v>
@@ -8116,7 +8113,7 @@
         <v>184</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="30" spans="1:23" ht="129.6">
@@ -8124,7 +8121,7 @@
         <v>2</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>2</v>
@@ -8133,7 +8130,7 @@
         <v>136</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>185</v>
@@ -8163,7 +8160,7 @@
         <v>188</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="V30" s="3" t="s">
         <v>189</v>
@@ -8177,7 +8174,7 @@
         <v>2</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>2</v>
@@ -8186,7 +8183,7 @@
         <v>136</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>191</v>
@@ -8216,7 +8213,7 @@
         <v>194</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="V31" s="3" t="s">
         <v>195</v>
@@ -8230,7 +8227,7 @@
         <v>2</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>2</v>
@@ -8239,7 +8236,7 @@
         <v>136</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>197</v>
@@ -8269,7 +8266,7 @@
         <v>200</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="33" spans="1:23" ht="100.8">
@@ -8277,7 +8274,7 @@
         <v>2</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>2</v>
@@ -8286,7 +8283,7 @@
         <v>136</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>201</v>
@@ -8319,13 +8316,13 @@
         <v>205</v>
       </c>
       <c r="S33" s="3" t="s">
+        <v>1304</v>
+      </c>
+      <c r="T33" s="3" t="s">
         <v>1305</v>
       </c>
-      <c r="T33" s="3" t="s">
+      <c r="U33" s="3" t="s">
         <v>1306</v>
-      </c>
-      <c r="U33" s="3" t="s">
-        <v>1307</v>
       </c>
     </row>
     <row r="34" spans="1:23" ht="72">
@@ -8333,7 +8330,7 @@
         <v>2</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>2</v>
@@ -8342,7 +8339,7 @@
         <v>136</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>206</v>
@@ -8378,10 +8375,10 @@
         <v>211</v>
       </c>
       <c r="T34" s="3" t="s">
+        <v>1307</v>
+      </c>
+      <c r="U34" s="3" t="s">
         <v>1308</v>
-      </c>
-      <c r="U34" s="3" t="s">
-        <v>1309</v>
       </c>
       <c r="V34" s="3" t="s">
         <v>212</v>
@@ -8395,7 +8392,7 @@
         <v>2</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>2</v>
@@ -8404,7 +8401,7 @@
         <v>136</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>214</v>
@@ -8434,7 +8431,7 @@
         <v>217</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="36" spans="1:23" ht="100.8">
@@ -8442,7 +8439,7 @@
         <v>2</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>2</v>
@@ -8451,7 +8448,7 @@
         <v>218</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>219</v>
@@ -8481,7 +8478,7 @@
         <v>222</v>
       </c>
       <c r="P36" s="1" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="V36" s="3" t="s">
         <v>223</v>
@@ -8495,7 +8492,7 @@
         <v>2</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>2</v>
@@ -8504,7 +8501,7 @@
         <v>218</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>225</v>
@@ -8540,10 +8537,10 @@
         <v>230</v>
       </c>
       <c r="T37" s="3" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="U37" s="3" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="100.8">
@@ -8551,7 +8548,7 @@
         <v>2</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>2</v>
@@ -8560,7 +8557,7 @@
         <v>218</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>231</v>
@@ -8590,7 +8587,7 @@
         <v>234</v>
       </c>
       <c r="P38" s="1" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="V38" s="3" t="s">
         <v>235</v>
@@ -8604,7 +8601,7 @@
         <v>2</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>2</v>
@@ -8613,7 +8610,7 @@
         <v>218</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>237</v>
@@ -8646,13 +8643,13 @@
         <v>241</v>
       </c>
       <c r="S39" s="3" t="s">
+        <v>1311</v>
+      </c>
+      <c r="T39" s="3" t="s">
         <v>1312</v>
       </c>
-      <c r="T39" s="3" t="s">
+      <c r="U39" s="3" t="s">
         <v>1313</v>
-      </c>
-      <c r="U39" s="3" t="s">
-        <v>1314</v>
       </c>
     </row>
     <row r="40" spans="1:23" ht="115.2">
@@ -8660,7 +8657,7 @@
         <v>2</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>2</v>
@@ -8669,7 +8666,7 @@
         <v>218</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>242</v>
@@ -8699,7 +8696,7 @@
         <v>245</v>
       </c>
       <c r="P40" s="1" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="41" spans="1:23" ht="86.4">
@@ -8707,7 +8704,7 @@
         <v>2</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>2</v>
@@ -8716,7 +8713,7 @@
         <v>218</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>246</v>
@@ -8752,10 +8749,10 @@
         <v>251</v>
       </c>
       <c r="T41" s="3" t="s">
+        <v>1314</v>
+      </c>
+      <c r="U41" s="3" t="s">
         <v>1315</v>
-      </c>
-      <c r="U41" s="3" t="s">
-        <v>1316</v>
       </c>
     </row>
     <row r="42" spans="1:23" ht="72">
@@ -8763,7 +8760,7 @@
         <v>2</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>2</v>
@@ -8772,7 +8769,7 @@
         <v>218</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>252</v>
@@ -8781,7 +8778,7 @@
         <v>253</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="J42" s="1">
         <v>0</v>
@@ -8802,16 +8799,16 @@
         <v>254</v>
       </c>
       <c r="R42" s="3" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="S42" s="3" t="s">
         <v>255</v>
       </c>
       <c r="T42" s="3" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="U42" s="3" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="43" spans="1:23" ht="158.4">
@@ -8819,7 +8816,7 @@
         <v>2</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>2</v>
@@ -8828,7 +8825,7 @@
         <v>218</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>256</v>
@@ -8858,7 +8855,7 @@
         <v>259</v>
       </c>
       <c r="P43" s="1" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="44" spans="1:23" ht="100.8">
@@ -8866,7 +8863,7 @@
         <v>2</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>2</v>
@@ -8875,7 +8872,7 @@
         <v>218</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>260</v>
@@ -8908,13 +8905,13 @@
         <v>264</v>
       </c>
       <c r="S44" s="3" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="T44" s="3" t="s">
+        <v>1312</v>
+      </c>
+      <c r="U44" s="3" t="s">
         <v>1313</v>
-      </c>
-      <c r="U44" s="3" t="s">
-        <v>1314</v>
       </c>
       <c r="V44" s="3" t="s">
         <v>265</v>
@@ -8928,7 +8925,7 @@
         <v>2</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>2</v>
@@ -8937,7 +8934,7 @@
         <v>218</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>267</v>
@@ -8967,7 +8964,7 @@
         <v>270</v>
       </c>
       <c r="P45" s="1" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="46" spans="1:23" ht="129.6">
@@ -8975,7 +8972,7 @@
         <v>2</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>2</v>
@@ -8984,7 +8981,7 @@
         <v>218</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>271</v>
@@ -9014,7 +9011,7 @@
         <v>274</v>
       </c>
       <c r="P46" s="1" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="Q46" s="3" t="s">
         <v>275</v>
@@ -9023,13 +9020,13 @@
         <v>276</v>
       </c>
       <c r="S46" s="3" t="s">
+        <v>1318</v>
+      </c>
+      <c r="T46" s="3" t="s">
         <v>1319</v>
       </c>
-      <c r="T46" s="3" t="s">
+      <c r="U46" s="3" t="s">
         <v>1320</v>
-      </c>
-      <c r="U46" s="3" t="s">
-        <v>1321</v>
       </c>
     </row>
     <row r="47" spans="1:23" ht="172.8">
@@ -9037,7 +9034,7 @@
         <v>2</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>2</v>
@@ -9046,7 +9043,7 @@
         <v>218</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>277</v>
@@ -9076,7 +9073,7 @@
         <v>280</v>
       </c>
       <c r="P47" s="1" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="48" spans="1:23" ht="129.6">
@@ -9084,7 +9081,7 @@
         <v>2</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>2</v>
@@ -9093,7 +9090,7 @@
         <v>218</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>281</v>
@@ -9123,7 +9120,7 @@
         <v>284</v>
       </c>
       <c r="P48" s="1" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="49" spans="1:23" ht="72">
@@ -9131,7 +9128,7 @@
         <v>2</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>2</v>
@@ -9140,7 +9137,7 @@
         <v>218</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>285</v>
@@ -9170,7 +9167,7 @@
         <v>288</v>
       </c>
       <c r="P49" s="1" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="50" spans="1:23" ht="86.4">
@@ -9178,7 +9175,7 @@
         <v>2</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>2</v>
@@ -9187,7 +9184,7 @@
         <v>218</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>289</v>
@@ -9223,10 +9220,10 @@
         <v>294</v>
       </c>
       <c r="T50" s="3" t="s">
+        <v>1322</v>
+      </c>
+      <c r="U50" s="3" t="s">
         <v>1323</v>
-      </c>
-      <c r="U50" s="3" t="s">
-        <v>1324</v>
       </c>
     </row>
     <row r="51" spans="1:23" ht="86.4">
@@ -9234,7 +9231,7 @@
         <v>2</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>2</v>
@@ -9243,13 +9240,13 @@
         <v>218</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>295</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="I51" s="1" t="s">
         <v>296</v>
@@ -9279,10 +9276,10 @@
         <v>290</v>
       </c>
       <c r="T51" s="3" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="U51" s="3" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="V51" s="3" t="s">
         <v>299</v>
@@ -9296,7 +9293,7 @@
         <v>2</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>2</v>
@@ -9305,7 +9302,7 @@
         <v>218</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>301</v>
@@ -9335,7 +9332,7 @@
         <v>304</v>
       </c>
       <c r="P52" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="53" spans="1:23" ht="86.4">
@@ -9343,7 +9340,7 @@
         <v>2</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>305</v>
@@ -9352,7 +9349,7 @@
         <v>306</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="G53" s="1" t="s">
         <v>307</v>
@@ -9379,19 +9376,19 @@
         <v>0</v>
       </c>
       <c r="Q53" s="3" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="R53" s="3" t="s">
         <v>310</v>
       </c>
       <c r="S53" s="3" t="s">
+        <v>1324</v>
+      </c>
+      <c r="T53" s="3" t="s">
         <v>1325</v>
       </c>
-      <c r="T53" s="3" t="s">
+      <c r="U53" s="3" t="s">
         <v>1326</v>
-      </c>
-      <c r="U53" s="3" t="s">
-        <v>1327</v>
       </c>
       <c r="V53" s="3" t="s">
         <v>311</v>
@@ -9405,7 +9402,7 @@
         <v>2</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>305</v>
@@ -9414,7 +9411,7 @@
         <v>306</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>313</v>
@@ -9447,13 +9444,13 @@
         <v>317</v>
       </c>
       <c r="S54" s="3" t="s">
+        <v>1327</v>
+      </c>
+      <c r="T54" s="3" t="s">
         <v>1328</v>
       </c>
-      <c r="T54" s="3" t="s">
+      <c r="U54" s="3" t="s">
         <v>1329</v>
-      </c>
-      <c r="U54" s="3" t="s">
-        <v>1330</v>
       </c>
     </row>
     <row r="55" spans="1:23" ht="144">
@@ -9461,16 +9458,16 @@
         <v>2</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>306</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>318</v>
@@ -9500,7 +9497,7 @@
         <v>321</v>
       </c>
       <c r="P55" s="1" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="56" spans="1:23" ht="144">
@@ -9508,7 +9505,7 @@
         <v>2</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>305</v>
@@ -9517,10 +9514,10 @@
         <v>306</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="H56" s="1" t="s">
         <v>322</v>
@@ -9547,22 +9544,22 @@
         <v>324</v>
       </c>
       <c r="P56" s="1" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="Q56" s="3" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="R56" s="3" t="s">
+        <v>1332</v>
+      </c>
+      <c r="S56" s="3" t="s">
         <v>1333</v>
       </c>
-      <c r="S56" s="3" t="s">
+      <c r="T56" s="3" t="s">
         <v>1334</v>
       </c>
-      <c r="T56" s="3" t="s">
+      <c r="U56" s="3" t="s">
         <v>1335</v>
-      </c>
-      <c r="U56" s="3" t="s">
-        <v>1336</v>
       </c>
     </row>
     <row r="57" spans="1:23" ht="201.6">
@@ -9570,7 +9567,7 @@
         <v>2</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>305</v>
@@ -9579,7 +9576,7 @@
         <v>306</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="G57" s="1" t="s">
         <v>325</v>
@@ -9609,7 +9606,7 @@
         <v>328</v>
       </c>
       <c r="P57" s="1" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="58" spans="1:23" ht="100.8">
@@ -9617,7 +9614,7 @@
         <v>2</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>305</v>
@@ -9626,7 +9623,7 @@
         <v>306</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="G58" s="1" t="s">
         <v>329</v>
@@ -9656,7 +9653,7 @@
         <v>332</v>
       </c>
       <c r="P58" s="1" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="V58" s="3" t="s">
         <v>333</v>
@@ -9670,7 +9667,7 @@
         <v>2</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>305</v>
@@ -9679,10 +9676,10 @@
         <v>306</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="H59" s="1" t="s">
         <v>335</v>
@@ -9709,22 +9706,22 @@
         <v>337</v>
       </c>
       <c r="P59" s="1" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="Q59" s="3" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="R59" s="3" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="S59" s="3" t="s">
         <v>340</v>
       </c>
       <c r="T59" s="3" t="s">
+        <v>1340</v>
+      </c>
+      <c r="U59" s="3" t="s">
         <v>1341</v>
-      </c>
-      <c r="U59" s="3" t="s">
-        <v>1342</v>
       </c>
       <c r="V59" s="3" t="s">
         <v>338</v>
@@ -9738,7 +9735,7 @@
         <v>2</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>305</v>
@@ -9747,10 +9744,10 @@
         <v>306</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="H60" s="1" t="s">
         <v>340</v>
@@ -9777,7 +9774,7 @@
         <v>342</v>
       </c>
       <c r="P60" s="1" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="61" spans="1:23" ht="100.8">
@@ -9785,7 +9782,7 @@
         <v>2</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>305</v>
@@ -9794,7 +9791,7 @@
         <v>306</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="G61" s="1" t="s">
         <v>343</v>
@@ -9824,7 +9821,7 @@
         <v>346</v>
       </c>
       <c r="P61" s="1" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="62" spans="1:23" ht="86.4">
@@ -9832,7 +9829,7 @@
         <v>2</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>305</v>
@@ -9841,7 +9838,7 @@
         <v>306</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>347</v>
@@ -9871,7 +9868,7 @@
         <v>350</v>
       </c>
       <c r="P62" s="1" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="V62" s="3" t="s">
         <v>351</v>
@@ -9885,7 +9882,7 @@
         <v>2</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>305</v>
@@ -9894,7 +9891,7 @@
         <v>306</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="G63" s="1" t="s">
         <v>353</v>
@@ -9933,7 +9930,7 @@
         <v>368</v>
       </c>
       <c r="U63" s="3" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="V63" s="3" t="s">
         <v>359</v>
@@ -9947,7 +9944,7 @@
         <v>2</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>305</v>
@@ -9956,7 +9953,7 @@
         <v>306</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>361</v>
@@ -9995,7 +9992,7 @@
         <v>368</v>
       </c>
       <c r="U64" s="3" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="V64" s="3" t="s">
         <v>365</v>
@@ -10009,7 +10006,7 @@
         <v>2</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>305</v>
@@ -10018,7 +10015,7 @@
         <v>306</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>367</v>
@@ -10065,7 +10062,7 @@
         <v>2</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>305</v>
@@ -10074,7 +10071,7 @@
         <v>306</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>373</v>
@@ -10104,7 +10101,7 @@
         <v>376</v>
       </c>
       <c r="P66" s="1" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="V66" s="3" t="s">
         <v>377</v>
@@ -10118,7 +10115,7 @@
         <v>2</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>305</v>
@@ -10127,7 +10124,7 @@
         <v>306</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="G67" s="1" t="s">
         <v>379</v>
@@ -10157,7 +10154,7 @@
         <v>382</v>
       </c>
       <c r="P67" s="1" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="V67" s="3" t="s">
         <v>383</v>
@@ -10171,7 +10168,7 @@
         <v>2</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>305</v>
@@ -10180,7 +10177,7 @@
         <v>306</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="G68" s="1" t="s">
         <v>385</v>
@@ -10210,7 +10207,7 @@
         <v>388</v>
       </c>
       <c r="P68" s="1" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="V68" s="3" t="s">
         <v>389</v>
@@ -10224,7 +10221,7 @@
         <v>2</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>305</v>
@@ -10233,13 +10230,13 @@
         <v>306</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="I69" s="1" t="s">
         <v>391</v>
@@ -10263,22 +10260,22 @@
         <v>392</v>
       </c>
       <c r="P69" s="1" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="Q69" s="3" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="R69" s="3" t="s">
+        <v>1345</v>
+      </c>
+      <c r="S69" s="3" t="s">
         <v>1346</v>
       </c>
-      <c r="S69" s="3" t="s">
+      <c r="T69" s="3" t="s">
         <v>1347</v>
       </c>
-      <c r="T69" s="3" t="s">
-        <v>1348</v>
-      </c>
       <c r="U69" s="3" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="V69" s="3" t="s">
         <v>393</v>
@@ -10292,7 +10289,7 @@
         <v>2</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>305</v>
@@ -10301,7 +10298,7 @@
         <v>306</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="G70" s="1" t="s">
         <v>395</v>
@@ -10331,7 +10328,7 @@
         <v>398</v>
       </c>
       <c r="P70" s="1" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="71" spans="1:23" ht="144">
@@ -10339,7 +10336,7 @@
         <v>2</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>305</v>
@@ -10348,7 +10345,7 @@
         <v>306</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="G71" s="1" t="s">
         <v>399</v>
@@ -10378,7 +10375,7 @@
         <v>402</v>
       </c>
       <c r="P71" s="1" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="72" spans="1:23" ht="115.2">
@@ -10386,7 +10383,7 @@
         <v>2</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>305</v>
@@ -10395,7 +10392,7 @@
         <v>306</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="G72" s="1" t="s">
         <v>403</v>
@@ -10425,7 +10422,7 @@
         <v>406</v>
       </c>
       <c r="P72" s="1" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="V72" s="3" t="s">
         <v>407</v>
@@ -10439,7 +10436,7 @@
         <v>2</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>305</v>
@@ -10448,7 +10445,7 @@
         <v>306</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="G73" s="1" t="s">
         <v>409</v>
@@ -10478,7 +10475,7 @@
         <v>412</v>
       </c>
       <c r="P73" s="1" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="74" spans="1:23" ht="129.6">
@@ -10486,7 +10483,7 @@
         <v>2</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>305</v>
@@ -10495,7 +10492,7 @@
         <v>306</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="G74" s="1" t="s">
         <v>413</v>
@@ -10525,7 +10522,7 @@
         <v>416</v>
       </c>
       <c r="P74" s="1" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="75" spans="1:23" ht="115.2">
@@ -10533,7 +10530,7 @@
         <v>2</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>305</v>
@@ -10542,13 +10539,13 @@
         <v>306</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="G75" s="1" t="s">
         <v>417</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="I75" s="1" t="s">
         <v>418</v>
@@ -10572,7 +10569,7 @@
         <v>419</v>
       </c>
       <c r="P75" s="1" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="Q75" s="3" t="s">
         <v>420</v>
@@ -10581,13 +10578,13 @@
         <v>421</v>
       </c>
       <c r="S75" s="3" t="s">
+        <v>1352</v>
+      </c>
+      <c r="T75" s="3" t="s">
+        <v>1351</v>
+      </c>
+      <c r="U75" s="3" t="s">
         <v>1353</v>
-      </c>
-      <c r="T75" s="3" t="s">
-        <v>1352</v>
-      </c>
-      <c r="U75" s="3" t="s">
-        <v>1354</v>
       </c>
       <c r="V75" s="3" t="s">
         <v>422</v>
@@ -10601,7 +10598,7 @@
         <v>2</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>305</v>
@@ -10610,7 +10607,7 @@
         <v>306</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="G76" s="1" t="s">
         <v>424</v>
@@ -10640,7 +10637,7 @@
         <v>427</v>
       </c>
       <c r="P76" s="1" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="77" spans="1:23" ht="201.6">
@@ -10648,7 +10645,7 @@
         <v>2</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>305</v>
@@ -10657,7 +10654,7 @@
         <v>306</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="G77" s="1" t="s">
         <v>428</v>
@@ -10687,7 +10684,7 @@
         <v>431</v>
       </c>
       <c r="P77" s="1" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="V77" s="3" t="s">
         <v>432</v>
@@ -10701,7 +10698,7 @@
         <v>2</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>305</v>
@@ -10710,7 +10707,7 @@
         <v>306</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="G78" s="1" t="s">
         <v>434</v>
@@ -10746,10 +10743,10 @@
         <v>439</v>
       </c>
       <c r="T78" s="3" t="s">
+        <v>1354</v>
+      </c>
+      <c r="U78" s="3" t="s">
         <v>1355</v>
-      </c>
-      <c r="U78" s="3" t="s">
-        <v>1356</v>
       </c>
       <c r="V78" s="3" t="s">
         <v>440</v>
@@ -10763,7 +10760,7 @@
         <v>2</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>305</v>
@@ -10772,7 +10769,7 @@
         <v>306</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="G79" s="1" t="s">
         <v>442</v>
@@ -10805,13 +10802,13 @@
         <v>445</v>
       </c>
       <c r="S79" s="3" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="T79" s="3" t="s">
         <v>435</v>
       </c>
       <c r="U79" s="3" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="V79" s="3" t="s">
         <v>446</v>
@@ -10825,7 +10822,7 @@
         <v>2</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>305</v>
@@ -10834,7 +10831,7 @@
         <v>306</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="G80" s="1" t="s">
         <v>448</v>
@@ -10870,10 +10867,10 @@
         <v>439</v>
       </c>
       <c r="T80" s="3" t="s">
+        <v>1354</v>
+      </c>
+      <c r="U80" s="3" t="s">
         <v>1355</v>
-      </c>
-      <c r="U80" s="3" t="s">
-        <v>1356</v>
       </c>
       <c r="V80" s="3" t="s">
         <v>453</v>
@@ -10887,7 +10884,7 @@
         <v>2</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>305</v>
@@ -10896,7 +10893,7 @@
         <v>306</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="G81" s="1" t="s">
         <v>455</v>
@@ -10926,7 +10923,7 @@
         <v>458</v>
       </c>
       <c r="P81" s="1" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="82" spans="1:23" ht="187.2">
@@ -10934,7 +10931,7 @@
         <v>2</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>305</v>
@@ -10943,7 +10940,7 @@
         <v>306</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="G82" s="1" t="s">
         <v>459</v>
@@ -10973,7 +10970,7 @@
         <v>462</v>
       </c>
       <c r="P82" s="1" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="83" spans="1:23" ht="86.4">
@@ -10981,7 +10978,7 @@
         <v>2</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>305</v>
@@ -10990,7 +10987,7 @@
         <v>306</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="G83" s="1" t="s">
         <v>463</v>
@@ -11026,10 +11023,10 @@
         <v>468</v>
       </c>
       <c r="T83" s="3" t="s">
+        <v>1356</v>
+      </c>
+      <c r="U83" s="3" t="s">
         <v>1357</v>
-      </c>
-      <c r="U83" s="3" t="s">
-        <v>1358</v>
       </c>
     </row>
     <row r="84" spans="1:23" ht="115.2">
@@ -11037,7 +11034,7 @@
         <v>2</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>469</v>
@@ -11046,13 +11043,13 @@
         <v>470</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="G84" s="1" t="s">
         <v>471</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="I84" s="1" t="s">
         <v>472</v>
@@ -11082,7 +11079,7 @@
         <v>475</v>
       </c>
       <c r="T84" s="3" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="U84" s="3" t="s">
         <v>476</v>
@@ -11093,7 +11090,7 @@
         <v>2</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>469</v>
@@ -11102,7 +11099,7 @@
         <v>470</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="G85" s="1" t="s">
         <v>477</v>
@@ -11135,13 +11132,13 @@
         <v>481</v>
       </c>
       <c r="S85" s="3" t="s">
+        <v>1358</v>
+      </c>
+      <c r="T85" s="3" t="s">
         <v>1359</v>
       </c>
-      <c r="T85" s="3" t="s">
+      <c r="U85" s="3" t="s">
         <v>1360</v>
-      </c>
-      <c r="U85" s="3" t="s">
-        <v>1361</v>
       </c>
       <c r="V85" s="3" t="s">
         <v>482</v>
@@ -11155,7 +11152,7 @@
         <v>2</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>469</v>
@@ -11164,7 +11161,7 @@
         <v>470</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="G86" s="1" t="s">
         <v>484</v>
@@ -11194,7 +11191,7 @@
         <v>487</v>
       </c>
       <c r="P86" s="1" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="Q86" s="3" t="s">
         <v>488</v>
@@ -11223,7 +11220,7 @@
         <v>2</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>469</v>
@@ -11232,7 +11229,7 @@
         <v>470</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="G87" s="1" t="s">
         <v>495</v>
@@ -11262,7 +11259,7 @@
         <v>497</v>
       </c>
       <c r="P87" s="1" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="Q87" s="3" t="s">
         <v>498</v>
@@ -11291,7 +11288,7 @@
         <v>2</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>469</v>
@@ -11300,7 +11297,7 @@
         <v>502</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="G88" s="1" t="s">
         <v>503</v>
@@ -11330,7 +11327,7 @@
         <v>506</v>
       </c>
       <c r="P88" s="1" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="89" spans="1:23" ht="72">
@@ -11338,16 +11335,16 @@
         <v>2</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>502</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="G89" s="1" t="s">
         <v>507</v>
@@ -11380,13 +11377,13 @@
         <v>511</v>
       </c>
       <c r="S89" s="3" t="s">
+        <v>1361</v>
+      </c>
+      <c r="T89" s="3" t="s">
         <v>1362</v>
       </c>
-      <c r="T89" s="3" t="s">
+      <c r="U89" s="3" t="s">
         <v>1363</v>
-      </c>
-      <c r="U89" s="3" t="s">
-        <v>1364</v>
       </c>
       <c r="V89" s="3" t="s">
         <v>512</v>
@@ -11400,7 +11397,7 @@
         <v>2</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>469</v>
@@ -11409,7 +11406,7 @@
         <v>502</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="G90" s="1" t="s">
         <v>514</v>
@@ -11439,7 +11436,7 @@
         <v>517</v>
       </c>
       <c r="P90" s="1" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="91" spans="1:23" ht="144">
@@ -11447,7 +11444,7 @@
         <v>2</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>469</v>
@@ -11456,7 +11453,7 @@
         <v>502</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="G91" s="1" t="s">
         <v>518</v>
@@ -11486,7 +11483,7 @@
         <v>521</v>
       </c>
       <c r="P91" s="1" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="92" spans="1:23" ht="187.2">
@@ -11494,7 +11491,7 @@
         <v>2</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>469</v>
@@ -11503,7 +11500,7 @@
         <v>502</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="G92" s="1" t="s">
         <v>522</v>
@@ -11533,7 +11530,7 @@
         <v>525</v>
       </c>
       <c r="P92" s="1" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="93" spans="1:23" ht="100.8">
@@ -11541,7 +11538,7 @@
         <v>2</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>469</v>
@@ -11550,7 +11547,7 @@
         <v>502</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="G93" s="1" t="s">
         <v>526</v>
@@ -11580,7 +11577,7 @@
         <v>529</v>
       </c>
       <c r="P93" s="1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="94" spans="1:23" ht="187.2">
@@ -11588,7 +11585,7 @@
         <v>2</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>469</v>
@@ -11597,10 +11594,10 @@
         <v>502</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="H94" s="1" t="s">
         <v>530</v>
@@ -11624,10 +11621,10 @@
         <v>0</v>
       </c>
       <c r="Q94" s="3" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="R94" s="3" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="S94" s="3" t="s">
         <v>534</v>
@@ -11650,7 +11647,7 @@
         <v>2</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>469</v>
@@ -11659,10 +11656,10 @@
         <v>502</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="H95" s="1" t="s">
         <v>534</v>
@@ -11686,10 +11683,10 @@
         <v>0</v>
       </c>
       <c r="Q95" s="3" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="R95" s="3" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="S95" s="3" t="s">
         <v>530</v>
@@ -11712,7 +11709,7 @@
         <v>2</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>469</v>
@@ -11721,7 +11718,7 @@
         <v>502</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="G96" s="1" t="s">
         <v>538</v>
@@ -11774,7 +11771,7 @@
         <v>2</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>469</v>
@@ -11783,7 +11780,7 @@
         <v>502</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="G97" s="1" t="s">
         <v>545</v>
@@ -11816,13 +11813,13 @@
         <v>549</v>
       </c>
       <c r="S97" s="3" t="s">
+        <v>1364</v>
+      </c>
+      <c r="T97" s="3" t="s">
         <v>1365</v>
       </c>
-      <c r="T97" s="3" t="s">
+      <c r="U97" s="3" t="s">
         <v>1366</v>
-      </c>
-      <c r="U97" s="3" t="s">
-        <v>1367</v>
       </c>
     </row>
     <row r="98" spans="1:23" ht="144">
@@ -11830,7 +11827,7 @@
         <v>2</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>469</v>
@@ -11839,7 +11836,7 @@
         <v>502</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="G98" s="1" t="s">
         <v>551</v>
@@ -11875,10 +11872,10 @@
         <v>546</v>
       </c>
       <c r="T98" s="3" t="s">
+        <v>1364</v>
+      </c>
+      <c r="U98" s="3" t="s">
         <v>1365</v>
-      </c>
-      <c r="U98" s="3" t="s">
-        <v>1366</v>
       </c>
     </row>
     <row r="99" spans="1:23" ht="129.6">
@@ -11886,7 +11883,7 @@
         <v>2</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>469</v>
@@ -11895,7 +11892,7 @@
         <v>502</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="G99" s="1" t="s">
         <v>555</v>
@@ -11942,7 +11939,7 @@
         <v>2</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>469</v>
@@ -11951,10 +11948,10 @@
         <v>502</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="H100" s="1" t="s">
         <v>560</v>
@@ -11981,13 +11978,13 @@
         <v>562</v>
       </c>
       <c r="P100" s="1" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="Q100" s="3" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="R100" s="3" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="S100" s="3" t="s">
         <v>564</v>
@@ -12004,7 +12001,7 @@
         <v>2</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>469</v>
@@ -12013,7 +12010,7 @@
         <v>502</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="G101" s="1" t="s">
         <v>563</v>
@@ -12066,7 +12063,7 @@
         <v>2</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>469</v>
@@ -12075,7 +12072,7 @@
         <v>502</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="G102" s="1" t="s">
         <v>573</v>
@@ -12128,7 +12125,7 @@
         <v>2</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>469</v>
@@ -12137,7 +12134,7 @@
         <v>502</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="G103" s="1" t="s">
         <v>581</v>
@@ -12190,7 +12187,7 @@
         <v>2</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>469</v>
@@ -12199,7 +12196,7 @@
         <v>502</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="G104" s="1" t="s">
         <v>588</v>
@@ -12252,7 +12249,7 @@
         <v>2</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>469</v>
@@ -12261,7 +12258,7 @@
         <v>502</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="G105" s="1" t="s">
         <v>595</v>
@@ -12314,7 +12311,7 @@
         <v>2</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>469</v>
@@ -12323,7 +12320,7 @@
         <v>502</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="G106" s="1" t="s">
         <v>604</v>
@@ -12376,7 +12373,7 @@
         <v>2</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>469</v>
@@ -12385,7 +12382,7 @@
         <v>502</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="G107" s="1" t="s">
         <v>614</v>
@@ -12415,7 +12412,7 @@
         <v>616</v>
       </c>
       <c r="P107" s="1" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="Q107" s="3" t="s">
         <v>617</v>
@@ -12444,7 +12441,7 @@
         <v>2</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>469</v>
@@ -12453,7 +12450,7 @@
         <v>502</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="G108" s="1" t="s">
         <v>621</v>
@@ -12483,7 +12480,7 @@
         <v>623</v>
       </c>
       <c r="P108" s="1" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="Q108" s="3" t="s">
         <v>624</v>
@@ -12506,7 +12503,7 @@
         <v>2</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>469</v>
@@ -12515,7 +12512,7 @@
         <v>502</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="G109" s="1" t="s">
         <v>627</v>
@@ -12545,7 +12542,7 @@
         <v>630</v>
       </c>
       <c r="P109" s="1" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="110" spans="1:23" ht="115.2">
@@ -12553,7 +12550,7 @@
         <v>2</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>631</v>
@@ -12562,7 +12559,7 @@
         <v>632</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="G110" s="1" t="s">
         <v>633</v>
@@ -12592,7 +12589,7 @@
         <v>636</v>
       </c>
       <c r="P110" s="1" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="Q110" s="3" t="s">
         <v>637</v>
@@ -12615,7 +12612,7 @@
         <v>2</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>631</v>
@@ -12624,7 +12621,7 @@
         <v>632</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="G111" s="1" t="s">
         <v>642</v>
@@ -12654,7 +12651,7 @@
         <v>645</v>
       </c>
       <c r="P111" s="1" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="Q111" s="3" t="s">
         <v>646</v>
@@ -12677,7 +12674,7 @@
         <v>2</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>631</v>
@@ -12686,7 +12683,7 @@
         <v>632</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="G112" s="1" t="s">
         <v>649</v>
@@ -12716,7 +12713,7 @@
         <v>651</v>
       </c>
       <c r="P112" s="1" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="Q112" s="3" t="s">
         <v>652</v>
@@ -12739,7 +12736,7 @@
         <v>2</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>631</v>
@@ -12748,7 +12745,7 @@
         <v>632</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="G113" s="1" t="s">
         <v>654</v>
@@ -12778,7 +12775,7 @@
         <v>657</v>
       </c>
       <c r="P113" s="1" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="114" spans="1:23" ht="115.2">
@@ -12786,16 +12783,16 @@
         <v>2</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>632</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="G114" s="1" t="s">
         <v>658</v>
@@ -12825,7 +12822,7 @@
         <v>661</v>
       </c>
       <c r="P114" s="1" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="115" spans="1:23" ht="100.8">
@@ -12833,7 +12830,7 @@
         <v>2</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>631</v>
@@ -12842,7 +12839,7 @@
         <v>632</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="G115" s="1" t="s">
         <v>662</v>
@@ -12889,7 +12886,7 @@
         <v>2</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>631</v>
@@ -12901,7 +12898,7 @@
         <v>671</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="G116" s="1" t="s">
         <v>672</v>
@@ -12931,7 +12928,7 @@
         <v>675</v>
       </c>
       <c r="P116" s="1" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="Q116" s="3" t="s">
         <v>676</v>
@@ -12954,7 +12951,7 @@
         <v>2</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>631</v>
@@ -12966,7 +12963,7 @@
         <v>671</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="G117" s="1" t="s">
         <v>679</v>
@@ -12996,7 +12993,7 @@
         <v>682</v>
       </c>
       <c r="P117" s="1" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="118" spans="1:23" ht="115.2">
@@ -13004,7 +13001,7 @@
         <v>2</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>631</v>
@@ -13016,7 +13013,7 @@
         <v>671</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="G118" s="1" t="s">
         <v>683</v>
@@ -13046,7 +13043,7 @@
         <v>686</v>
       </c>
       <c r="P118" s="1" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="Q118" s="3" t="s">
         <v>687</v>
@@ -13058,10 +13055,10 @@
         <v>689</v>
       </c>
       <c r="T118" s="3" t="s">
+        <v>1370</v>
+      </c>
+      <c r="U118" s="3" t="s">
         <v>1371</v>
-      </c>
-      <c r="U118" s="3" t="s">
-        <v>1372</v>
       </c>
       <c r="V118" s="3" t="s">
         <v>690</v>
@@ -13075,7 +13072,7 @@
         <v>2</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>631</v>
@@ -13087,7 +13084,7 @@
         <v>671</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="G119" s="1" t="s">
         <v>692</v>
@@ -13117,7 +13114,7 @@
         <v>695</v>
       </c>
       <c r="P119" s="1" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="V119" s="3" t="s">
         <v>696</v>
@@ -13131,7 +13128,7 @@
         <v>2</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>631</v>
@@ -13143,10 +13140,10 @@
         <v>671</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="H120" s="1" t="s">
         <v>698</v>
@@ -13173,22 +13170,22 @@
         <v>700</v>
       </c>
       <c r="P120" s="1" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="Q120" s="3" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="R120" s="3" t="s">
+        <v>1374</v>
+      </c>
+      <c r="S120" s="3" t="s">
         <v>1375</v>
       </c>
-      <c r="S120" s="3" t="s">
+      <c r="T120" s="3" t="s">
         <v>1376</v>
       </c>
-      <c r="T120" s="3" t="s">
+      <c r="U120" s="3" t="s">
         <v>1377</v>
-      </c>
-      <c r="U120" s="3" t="s">
-        <v>1378</v>
       </c>
     </row>
     <row r="121" spans="1:23" ht="115.2">
@@ -13196,7 +13193,7 @@
         <v>2</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>631</v>
@@ -13208,7 +13205,7 @@
         <v>671</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="G121" s="1" t="s">
         <v>701</v>
@@ -13238,7 +13235,7 @@
         <v>704</v>
       </c>
       <c r="P121" s="1" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="Q121" s="3" t="s">
         <v>705</v>
@@ -13247,13 +13244,13 @@
         <v>706</v>
       </c>
       <c r="S121" s="3" t="s">
+        <v>1378</v>
+      </c>
+      <c r="T121" s="3" t="s">
         <v>1379</v>
       </c>
-      <c r="T121" s="3" t="s">
+      <c r="U121" s="3" t="s">
         <v>1380</v>
-      </c>
-      <c r="U121" s="3" t="s">
-        <v>1381</v>
       </c>
     </row>
     <row r="122" spans="1:23" ht="86.4">
@@ -13261,7 +13258,7 @@
         <v>2</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>631</v>
@@ -13273,7 +13270,7 @@
         <v>671</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="G122" s="1" t="s">
         <v>707</v>
@@ -13303,7 +13300,7 @@
         <v>710</v>
       </c>
       <c r="P122" s="1" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="123" spans="1:23" ht="100.8">
@@ -13311,7 +13308,7 @@
         <v>2</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>631</v>
@@ -13323,7 +13320,7 @@
         <v>671</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="G123" s="1" t="s">
         <v>711</v>
@@ -13353,7 +13350,7 @@
         <v>714</v>
       </c>
       <c r="P123" s="1" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="Q123" s="3" t="s">
         <v>715</v>
@@ -13382,7 +13379,7 @@
         <v>2</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>631</v>
@@ -13394,7 +13391,7 @@
         <v>671</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="G124" s="1" t="s">
         <v>722</v>
@@ -13424,7 +13421,7 @@
         <v>725</v>
       </c>
       <c r="P124" s="1" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="125" spans="1:23" ht="100.8">
@@ -13432,7 +13429,7 @@
         <v>2</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>631</v>
@@ -13444,7 +13441,7 @@
         <v>671</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="G125" s="1" t="s">
         <v>726</v>
@@ -13474,7 +13471,7 @@
         <v>729</v>
       </c>
       <c r="P125" s="1" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="Q125" s="3" t="s">
         <v>730</v>
@@ -13497,7 +13494,7 @@
         <v>2</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>631</v>
@@ -13509,7 +13506,7 @@
         <v>671</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="G126" s="1" t="s">
         <v>734</v>
@@ -13539,7 +13536,7 @@
         <v>736</v>
       </c>
       <c r="P126" s="1" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="Q126" s="3" t="s">
         <v>737</v>
@@ -13562,7 +13559,7 @@
         <v>2</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>631</v>
@@ -13574,7 +13571,7 @@
         <v>671</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="G127" s="1" t="s">
         <v>740</v>
@@ -13604,7 +13601,7 @@
         <v>742</v>
       </c>
       <c r="P127" s="1" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="Q127" s="3" t="s">
         <v>743</v>
@@ -13627,7 +13624,7 @@
         <v>2</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>631</v>
@@ -13639,7 +13636,7 @@
         <v>671</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="G128" s="1" t="s">
         <v>746</v>
@@ -13669,7 +13666,7 @@
         <v>749</v>
       </c>
       <c r="P128" s="1" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="Q128" s="3" t="s">
         <v>750</v>
@@ -13681,10 +13678,10 @@
         <v>752</v>
       </c>
       <c r="T128" s="3" t="s">
+        <v>1381</v>
+      </c>
+      <c r="U128" s="3" t="s">
         <v>1382</v>
-      </c>
-      <c r="U128" s="3" t="s">
-        <v>1383</v>
       </c>
       <c r="V128" s="3" t="s">
         <v>753</v>
@@ -13698,7 +13695,7 @@
         <v>2</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>631</v>
@@ -13710,7 +13707,7 @@
         <v>671</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="G129" s="1" t="s">
         <v>755</v>
@@ -13740,7 +13737,7 @@
         <v>757</v>
       </c>
       <c r="P129" s="1" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="Q129" s="3" t="s">
         <v>758</v>
@@ -13752,10 +13749,10 @@
         <v>747</v>
       </c>
       <c r="T129" s="3" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="U129" s="3" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="V129" s="3" t="s">
         <v>760</v>
@@ -13769,7 +13766,7 @@
         <v>2</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>631</v>
@@ -13781,7 +13778,7 @@
         <v>671</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="G130" s="1" t="s">
         <v>762</v>
@@ -13811,7 +13808,7 @@
         <v>765</v>
       </c>
       <c r="P130" s="1" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="131" spans="1:23" ht="129.6">
@@ -13819,7 +13816,7 @@
         <v>2</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>631</v>
@@ -13831,7 +13828,7 @@
         <v>671</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="G131" s="1" t="s">
         <v>766</v>
@@ -13861,7 +13858,7 @@
         <v>769</v>
       </c>
       <c r="P131" s="1" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="V131" s="3" t="s">
         <v>770</v>
@@ -13875,7 +13872,7 @@
         <v>2</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>631</v>
@@ -13887,7 +13884,7 @@
         <v>671</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="G132" s="1" t="s">
         <v>772</v>
@@ -13917,7 +13914,7 @@
         <v>775</v>
       </c>
       <c r="P132" s="1" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="Q132" s="3" t="s">
         <v>776</v>
@@ -13926,13 +13923,13 @@
         <v>777</v>
       </c>
       <c r="S132" s="3" t="s">
+        <v>1383</v>
+      </c>
+      <c r="T132" s="3" t="s">
         <v>1384</v>
       </c>
-      <c r="T132" s="3" t="s">
+      <c r="U132" s="3" t="s">
         <v>1385</v>
-      </c>
-      <c r="U132" s="3" t="s">
-        <v>1386</v>
       </c>
     </row>
     <row r="133" spans="1:23" ht="144">
@@ -13940,7 +13937,7 @@
         <v>2</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>631</v>
@@ -13952,7 +13949,7 @@
         <v>671</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="G133" s="1" t="s">
         <v>778</v>
@@ -13982,7 +13979,7 @@
         <v>781</v>
       </c>
       <c r="P133" s="1" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="V133" s="3" t="s">
         <v>782</v>
@@ -13996,7 +13993,7 @@
         <v>2</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>631</v>
@@ -14008,7 +14005,7 @@
         <v>671</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="G134" s="1" t="s">
         <v>784</v>
@@ -14038,7 +14035,7 @@
         <v>787</v>
       </c>
       <c r="P134" s="1" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="Q134" s="3" t="s">
         <v>788</v>
@@ -14055,7 +14052,7 @@
         <v>2</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>631</v>
@@ -14067,7 +14064,7 @@
         <v>671</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="G135" s="1" t="s">
         <v>791</v>
@@ -14097,7 +14094,7 @@
         <v>794</v>
       </c>
       <c r="P135" s="1" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="136" spans="1:23" ht="115.2">
@@ -14105,7 +14102,7 @@
         <v>2</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>631</v>
@@ -14117,7 +14114,7 @@
         <v>671</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="G136" s="1" t="s">
         <v>795</v>
@@ -14147,7 +14144,7 @@
         <v>798</v>
       </c>
       <c r="P136" s="1" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="137" spans="1:23" ht="230.4">
@@ -14155,7 +14152,7 @@
         <v>2</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>631</v>
@@ -14167,7 +14164,7 @@
         <v>671</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="G137" s="1" t="s">
         <v>799</v>
@@ -14214,7 +14211,7 @@
         <v>2</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>631</v>
@@ -14226,7 +14223,7 @@
         <v>671</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="G138" s="1" t="s">
         <v>807</v>
@@ -14273,7 +14270,7 @@
         <v>2</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>631</v>
@@ -14285,7 +14282,7 @@
         <v>811</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="G139" s="1" t="s">
         <v>812</v>
@@ -14321,10 +14318,10 @@
         <v>817</v>
       </c>
       <c r="T139" s="3" t="s">
+        <v>1386</v>
+      </c>
+      <c r="U139" s="3" t="s">
         <v>1387</v>
-      </c>
-      <c r="U139" s="3" t="s">
-        <v>1388</v>
       </c>
     </row>
     <row r="140" spans="1:23" ht="115.2">
@@ -14332,7 +14329,7 @@
         <v>2</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>631</v>
@@ -14344,7 +14341,7 @@
         <v>811</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="G140" s="1" t="s">
         <v>818</v>
@@ -14374,7 +14371,7 @@
         <v>821</v>
       </c>
       <c r="P140" s="1" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="141" spans="1:23" ht="100.8">
@@ -14382,7 +14379,7 @@
         <v>2</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>631</v>
@@ -14394,7 +14391,7 @@
         <v>811</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="G141" s="1" t="s">
         <v>822</v>
@@ -14424,7 +14421,7 @@
         <v>825</v>
       </c>
       <c r="P141" s="1" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="142" spans="1:23" ht="86.4">
@@ -14432,7 +14429,7 @@
         <v>2</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>631</v>
@@ -14444,7 +14441,7 @@
         <v>811</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="G142" s="1" t="s">
         <v>826</v>
@@ -14483,7 +14480,7 @@
         <v>835</v>
       </c>
       <c r="U142" s="3" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="V142" s="3" t="s">
         <v>832</v>
@@ -14497,7 +14494,7 @@
         <v>2</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>631</v>
@@ -14509,7 +14506,7 @@
         <v>811</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="G143" s="1" t="s">
         <v>834</v>
@@ -14548,7 +14545,7 @@
         <v>831</v>
       </c>
       <c r="U143" s="3" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="144" spans="1:23" ht="100.8">
@@ -14556,7 +14553,7 @@
         <v>2</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>631</v>
@@ -14568,10 +14565,10 @@
         <v>811</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="H144" s="1" t="s">
         <v>839</v>
@@ -14598,22 +14595,22 @@
         <v>841</v>
       </c>
       <c r="P144" s="1" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="Q144" s="3" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="R144" s="3" t="s">
+        <v>1459</v>
+      </c>
+      <c r="S144" s="3" t="s">
         <v>1460</v>
       </c>
-      <c r="S144" s="3" t="s">
+      <c r="T144" s="3" t="s">
         <v>1461</v>
       </c>
-      <c r="T144" s="3" t="s">
+      <c r="U144" s="3" t="s">
         <v>1462</v>
-      </c>
-      <c r="U144" s="3" t="s">
-        <v>1463</v>
       </c>
     </row>
     <row r="145" spans="1:23" ht="129.6">
@@ -14621,7 +14618,7 @@
         <v>2</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>631</v>
@@ -14633,7 +14630,7 @@
         <v>811</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="G145" s="1" t="s">
         <v>842</v>
@@ -14663,7 +14660,7 @@
         <v>845</v>
       </c>
       <c r="P145" s="1" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="146" spans="1:23" ht="100.8">
@@ -14671,7 +14668,7 @@
         <v>2</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>631</v>
@@ -14683,7 +14680,7 @@
         <v>811</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="G146" s="1" t="s">
         <v>846</v>
@@ -14719,10 +14716,10 @@
         <v>851</v>
       </c>
       <c r="T146" s="3" t="s">
+        <v>1390</v>
+      </c>
+      <c r="U146" s="3" t="s">
         <v>1391</v>
-      </c>
-      <c r="U146" s="3" t="s">
-        <v>1392</v>
       </c>
       <c r="V146" s="3" t="s">
         <v>852</v>
@@ -14736,7 +14733,7 @@
         <v>2</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>631</v>
@@ -14748,7 +14745,7 @@
         <v>811</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="G147" s="1" t="s">
         <v>854</v>
@@ -14784,10 +14781,10 @@
         <v>859</v>
       </c>
       <c r="T147" s="3" t="s">
+        <v>1392</v>
+      </c>
+      <c r="U147" s="3" t="s">
         <v>1393</v>
-      </c>
-      <c r="U147" s="3" t="s">
-        <v>1394</v>
       </c>
       <c r="V147" s="3" t="s">
         <v>860</v>
@@ -14801,7 +14798,7 @@
         <v>2</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>631</v>
@@ -14813,7 +14810,7 @@
         <v>811</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="G148" s="1" t="s">
         <v>862</v>
@@ -14843,7 +14840,7 @@
         <v>865</v>
       </c>
       <c r="P148" s="1" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="149" spans="1:23" ht="187.2">
@@ -14851,7 +14848,7 @@
         <v>2</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>631</v>
@@ -14863,7 +14860,7 @@
         <v>811</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="G149" s="1" t="s">
         <v>866</v>
@@ -14893,7 +14890,7 @@
         <v>869</v>
       </c>
       <c r="P149" s="1" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="150" spans="1:23" ht="158.4">
@@ -14901,7 +14898,7 @@
         <v>2</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>631</v>
@@ -14913,7 +14910,7 @@
         <v>811</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="G150" s="1" t="s">
         <v>870</v>
@@ -14943,7 +14940,7 @@
         <v>873</v>
       </c>
       <c r="P150" s="1" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="151" spans="1:23" ht="144">
@@ -14951,7 +14948,7 @@
         <v>2</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>631</v>
@@ -14963,7 +14960,7 @@
         <v>811</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="G151" s="1" t="s">
         <v>874</v>
@@ -14993,7 +14990,7 @@
         <v>877</v>
       </c>
       <c r="P151" s="1" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="152" spans="1:23" ht="158.4">
@@ -15001,7 +14998,7 @@
         <v>2</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>631</v>
@@ -15013,7 +15010,7 @@
         <v>811</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="G152" s="1" t="s">
         <v>878</v>
@@ -15043,7 +15040,7 @@
         <v>881</v>
       </c>
       <c r="P152" s="1" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="153" spans="1:23" ht="129.6">
@@ -15051,7 +15048,7 @@
         <v>2</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>631</v>
@@ -15063,7 +15060,7 @@
         <v>811</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="G153" s="1" t="s">
         <v>882</v>
@@ -15116,7 +15113,7 @@
         <v>2</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>631</v>
@@ -15128,7 +15125,7 @@
         <v>811</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="G154" s="1" t="s">
         <v>892</v>
@@ -15137,7 +15134,7 @@
         <v>893</v>
       </c>
       <c r="I154" s="1" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="J154" s="1">
         <v>1</v>
@@ -15158,7 +15155,7 @@
         <v>894</v>
       </c>
       <c r="P154" s="1" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="V154" s="3" t="s">
         <v>895</v>
@@ -15172,7 +15169,7 @@
         <v>2</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="C155" s="1" t="s">
         <v>631</v>
@@ -15184,7 +15181,7 @@
         <v>811</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="G155" s="1" t="s">
         <v>897</v>
@@ -15214,7 +15211,7 @@
         <v>900</v>
       </c>
       <c r="P155" s="1" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="156" spans="1:23" ht="129.6">
@@ -15222,7 +15219,7 @@
         <v>2</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>631</v>
@@ -15234,7 +15231,7 @@
         <v>811</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="G156" s="1" t="s">
         <v>901</v>
@@ -15264,7 +15261,7 @@
         <v>904</v>
       </c>
       <c r="P156" s="1" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="157" spans="1:23" ht="57.6">
@@ -15272,7 +15269,7 @@
         <v>2</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="C157" s="1" t="s">
         <v>631</v>
@@ -15284,7 +15281,7 @@
         <v>811</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="G157" s="1" t="s">
         <v>905</v>
@@ -15317,13 +15314,13 @@
         <v>909</v>
       </c>
       <c r="S157" s="3" t="s">
+        <v>1394</v>
+      </c>
+      <c r="T157" s="3" t="s">
+        <v>1396</v>
+      </c>
+      <c r="U157" s="3" t="s">
         <v>1395</v>
-      </c>
-      <c r="T157" s="3" t="s">
-        <v>1397</v>
-      </c>
-      <c r="U157" s="3" t="s">
-        <v>1396</v>
       </c>
       <c r="V157" s="3" t="s">
         <v>910</v>
@@ -15337,7 +15334,7 @@
         <v>2</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>631</v>
@@ -15349,7 +15346,7 @@
         <v>811</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="G158" s="1" t="s">
         <v>912</v>
@@ -15379,7 +15376,7 @@
         <v>915</v>
       </c>
       <c r="P158" s="1" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="159" spans="1:23" ht="100.8">
@@ -15387,7 +15384,7 @@
         <v>2</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>631</v>
@@ -15399,13 +15396,13 @@
         <v>811</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="G159" s="1" t="s">
         <v>916</v>
       </c>
       <c r="H159" s="1" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="I159" s="1" t="s">
         <v>917</v>
@@ -15429,7 +15426,7 @@
         <v>918</v>
       </c>
       <c r="P159" s="1" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="V159" s="3" t="s">
         <v>919</v>
@@ -15443,7 +15440,7 @@
         <v>2</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="C160" s="1" t="s">
         <v>631</v>
@@ -15455,7 +15452,7 @@
         <v>811</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="G160" s="1" t="s">
         <v>921</v>
@@ -15502,7 +15499,7 @@
         <v>2</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="C161" s="1" t="s">
         <v>631</v>
@@ -15514,7 +15511,7 @@
         <v>811</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="G161" s="1" t="s">
         <v>925</v>
@@ -15561,7 +15558,7 @@
         <v>2</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="C162" s="1" t="s">
         <v>631</v>
@@ -15573,7 +15570,7 @@
         <v>811</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="G162" s="1" t="s">
         <v>929</v>
@@ -15603,7 +15600,7 @@
         <v>932</v>
       </c>
       <c r="P162" s="1" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="163" spans="1:23" ht="72">
@@ -15611,7 +15608,7 @@
         <v>2</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="C163" s="1" t="s">
         <v>631</v>
@@ -15623,7 +15620,7 @@
         <v>811</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="G163" s="1" t="s">
         <v>933</v>
@@ -15656,13 +15653,13 @@
         <v>937</v>
       </c>
       <c r="S163" s="3" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="T163" s="3" t="s">
+        <v>1381</v>
+      </c>
+      <c r="U163" s="3" t="s">
         <v>1382</v>
-      </c>
-      <c r="U163" s="3" t="s">
-        <v>1383</v>
       </c>
       <c r="V163" s="3" t="s">
         <v>938</v>
@@ -15676,7 +15673,7 @@
         <v>2</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="C164" s="1" t="s">
         <v>631</v>
@@ -15688,7 +15685,7 @@
         <v>811</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="G164" s="1" t="s">
         <v>940</v>
@@ -15718,7 +15715,7 @@
         <v>943</v>
       </c>
       <c r="P164" s="1" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="165" spans="1:23" ht="100.8">
@@ -15726,7 +15723,7 @@
         <v>2</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="C165" s="1" t="s">
         <v>631</v>
@@ -15738,7 +15735,7 @@
         <v>811</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="G165" s="1" t="s">
         <v>944</v>
@@ -15771,13 +15768,13 @@
         <v>948</v>
       </c>
       <c r="S165" s="3" t="s">
+        <v>1398</v>
+      </c>
+      <c r="T165" s="3" t="s">
         <v>1399</v>
       </c>
-      <c r="T165" s="3" t="s">
+      <c r="U165" s="3" t="s">
         <v>1400</v>
-      </c>
-      <c r="U165" s="3" t="s">
-        <v>1401</v>
       </c>
       <c r="V165" s="3" t="s">
         <v>949</v>
@@ -15791,7 +15788,7 @@
         <v>2</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="C166" s="1" t="s">
         <v>631</v>
@@ -15803,7 +15800,7 @@
         <v>811</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="G166" s="1" t="s">
         <v>951</v>
@@ -15833,7 +15830,7 @@
         <v>954</v>
       </c>
       <c r="P166" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="167" spans="1:23" ht="187.2">
@@ -15841,7 +15838,7 @@
         <v>2</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="C167" s="1" t="s">
         <v>631</v>
@@ -15853,13 +15850,13 @@
         <v>811</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="G167" s="1" t="s">
         <v>955</v>
       </c>
       <c r="H167" s="1" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="I167" s="1" t="s">
         <v>957</v>
@@ -15889,10 +15886,10 @@
         <v>960</v>
       </c>
       <c r="T167" s="3" t="s">
+        <v>1402</v>
+      </c>
+      <c r="U167" s="3" t="s">
         <v>1403</v>
-      </c>
-      <c r="U167" s="3" t="s">
-        <v>1404</v>
       </c>
       <c r="V167" s="3" t="s">
         <v>961</v>
@@ -15906,7 +15903,7 @@
         <v>2</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="C168" s="1" t="s">
         <v>631</v>
@@ -15918,7 +15915,7 @@
         <v>811</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="G168" s="1" t="s">
         <v>963</v>
@@ -15954,10 +15951,10 @@
         <v>956</v>
       </c>
       <c r="T168" s="3" t="s">
+        <v>1402</v>
+      </c>
+      <c r="U168" s="3" t="s">
         <v>1403</v>
-      </c>
-      <c r="U168" s="3" t="s">
-        <v>1404</v>
       </c>
       <c r="V168" s="3" t="s">
         <v>967</v>
@@ -15971,7 +15968,7 @@
         <v>2</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="C169" s="1" t="s">
         <v>631</v>
@@ -15983,7 +15980,7 @@
         <v>811</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="G169" s="1" t="s">
         <v>969</v>
@@ -16036,7 +16033,7 @@
         <v>2</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="C170" s="1" t="s">
         <v>631</v>
@@ -16048,7 +16045,7 @@
         <v>811</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="G170" s="1" t="s">
         <v>979</v>
@@ -16095,7 +16092,7 @@
         <v>2</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="C171" s="1" t="s">
         <v>631</v>
@@ -16107,7 +16104,7 @@
         <v>811</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="G171" s="1" t="s">
         <v>983</v>
@@ -16143,10 +16140,10 @@
         <v>988</v>
       </c>
       <c r="T171" s="3" t="s">
+        <v>1404</v>
+      </c>
+      <c r="U171" s="3" t="s">
         <v>1405</v>
-      </c>
-      <c r="U171" s="3" t="s">
-        <v>1406</v>
       </c>
     </row>
     <row r="172" spans="1:23" ht="144">
@@ -16154,7 +16151,7 @@
         <v>2</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="C172" s="1" t="s">
         <v>631</v>
@@ -16166,7 +16163,7 @@
         <v>811</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="G172" s="1" t="s">
         <v>989</v>
@@ -16202,10 +16199,10 @@
         <v>984</v>
       </c>
       <c r="T172" s="3" t="s">
+        <v>1404</v>
+      </c>
+      <c r="U172" s="3" t="s">
         <v>1405</v>
-      </c>
-      <c r="U172" s="3" t="s">
-        <v>1406</v>
       </c>
     </row>
     <row r="173" spans="1:23" ht="129.6">
@@ -16213,7 +16210,7 @@
         <v>2</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="C173" s="1" t="s">
         <v>631</v>
@@ -16225,7 +16222,7 @@
         <v>811</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="G173" s="1" t="s">
         <v>993</v>
@@ -16272,7 +16269,7 @@
         <v>2</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="C174" s="1" t="s">
         <v>631</v>
@@ -16284,7 +16281,7 @@
         <v>811</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="G174" s="1" t="s">
         <v>998</v>
@@ -16314,7 +16311,7 @@
         <v>1001</v>
       </c>
       <c r="P174" s="1" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="175" spans="1:23" ht="172.8">
@@ -16322,7 +16319,7 @@
         <v>2</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="C175" s="1" t="s">
         <v>631</v>
@@ -16334,7 +16331,7 @@
         <v>811</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="G175" s="1" t="s">
         <v>1002</v>
@@ -16364,7 +16361,7 @@
         <v>1005</v>
       </c>
       <c r="P175" s="1" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="176" spans="1:23" ht="129.6">
@@ -16372,7 +16369,7 @@
         <v>2</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="C176" s="1" t="s">
         <v>631</v>
@@ -16384,7 +16381,7 @@
         <v>811</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="G176" s="1" t="s">
         <v>1006</v>
@@ -16414,7 +16411,7 @@
         <v>1009</v>
       </c>
       <c r="P176" s="1" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="V176" s="3" t="s">
         <v>1010</v>
@@ -16428,7 +16425,7 @@
         <v>2</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="C177" s="1" t="s">
         <v>631</v>
@@ -16440,7 +16437,7 @@
         <v>811</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="G177" s="1" t="s">
         <v>1012</v>
@@ -16470,7 +16467,7 @@
         <v>1015</v>
       </c>
       <c r="P177" s="1" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="V177" s="3" t="s">
         <v>1016</v>
@@ -16484,7 +16481,7 @@
         <v>2</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="C178" s="1" t="s">
         <v>631</v>
@@ -16496,7 +16493,7 @@
         <v>811</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="G178" s="1" t="s">
         <v>1018</v>
@@ -16526,7 +16523,7 @@
         <v>1021</v>
       </c>
       <c r="P178" s="1" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="Q178" s="3" t="s">
         <v>1022</v>
@@ -16535,13 +16532,13 @@
         <v>1023</v>
       </c>
       <c r="S178" s="3" t="s">
+        <v>1407</v>
+      </c>
+      <c r="T178" s="3" t="s">
+        <v>1406</v>
+      </c>
+      <c r="U178" s="3" t="s">
         <v>1408</v>
-      </c>
-      <c r="T178" s="3" t="s">
-        <v>1407</v>
-      </c>
-      <c r="U178" s="3" t="s">
-        <v>1409</v>
       </c>
     </row>
     <row r="179" spans="1:23" ht="115.2">
@@ -16549,7 +16546,7 @@
         <v>2</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="C179" s="1" t="s">
         <v>631</v>
@@ -16561,7 +16558,7 @@
         <v>811</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="G179" s="1" t="s">
         <v>1024</v>
@@ -16591,7 +16588,7 @@
         <v>1027</v>
       </c>
       <c r="P179" s="1" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="Q179" s="3" t="s">
         <v>1028</v>
@@ -16600,13 +16597,13 @@
         <v>1029</v>
       </c>
       <c r="S179" s="3" t="s">
+        <v>1409</v>
+      </c>
+      <c r="T179" s="3" t="s">
         <v>1410</v>
       </c>
-      <c r="T179" s="3" t="s">
+      <c r="U179" s="3" t="s">
         <v>1411</v>
-      </c>
-      <c r="U179" s="3" t="s">
-        <v>1412</v>
       </c>
     </row>
     <row r="180" spans="1:23" ht="144">
@@ -16614,7 +16611,7 @@
         <v>2</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="C180" s="1" t="s">
         <v>631</v>
@@ -16626,7 +16623,7 @@
         <v>811</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="G180" s="1" t="s">
         <v>1030</v>
@@ -16656,7 +16653,7 @@
         <v>1033</v>
       </c>
       <c r="P180" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="181" spans="1:23" ht="115.2">
@@ -16664,7 +16661,7 @@
         <v>2</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="C181" s="1" t="s">
         <v>631</v>
@@ -16676,7 +16673,7 @@
         <v>811</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="G181" s="1" t="s">
         <v>1034</v>
@@ -16706,7 +16703,7 @@
         <v>1037</v>
       </c>
       <c r="P181" s="1" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="182" spans="1:23" ht="129.6">
@@ -16714,7 +16711,7 @@
         <v>2</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="C182" s="1" t="s">
         <v>631</v>
@@ -16726,7 +16723,7 @@
         <v>811</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="G182" s="1" t="s">
         <v>1038</v>
@@ -16756,7 +16753,7 @@
         <v>1041</v>
       </c>
       <c r="P182" s="1" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="183" spans="1:23" ht="115.2">
@@ -16764,7 +16761,7 @@
         <v>2</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="C183" s="1" t="s">
         <v>631</v>
@@ -16776,7 +16773,7 @@
         <v>811</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="G183" s="1" t="s">
         <v>1042</v>
@@ -16806,7 +16803,7 @@
         <v>1045</v>
       </c>
       <c r="P183" s="1" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="Q183" s="3" t="s">
         <v>1046</v>
@@ -16818,10 +16815,10 @@
         <v>1048</v>
       </c>
       <c r="T183" s="3" t="s">
+        <v>1412</v>
+      </c>
+      <c r="U183" s="3" t="s">
         <v>1413</v>
-      </c>
-      <c r="U183" s="3" t="s">
-        <v>1414</v>
       </c>
       <c r="V183" s="3" t="s">
         <v>1049</v>
@@ -16835,7 +16832,7 @@
         <v>2</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="C184" s="1" t="s">
         <v>631</v>
@@ -16847,7 +16844,7 @@
         <v>811</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="G184" s="1" t="s">
         <v>1051</v>
@@ -16856,7 +16853,7 @@
         <v>1052</v>
       </c>
       <c r="I184" s="1" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="J184" s="1">
         <v>1</v>
@@ -16877,7 +16874,7 @@
         <v>1053</v>
       </c>
       <c r="P184" s="1" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="Q184" s="3" t="s">
         <v>1054</v>
@@ -16886,13 +16883,13 @@
         <v>1055</v>
       </c>
       <c r="S184" s="3" t="s">
+        <v>1415</v>
+      </c>
+      <c r="T184" s="3" t="s">
         <v>1416</v>
       </c>
-      <c r="T184" s="3" t="s">
-        <v>1417</v>
-      </c>
       <c r="U184" s="3" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="V184" s="3" t="s">
         <v>1056</v>
@@ -16906,7 +16903,7 @@
         <v>2</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="C185" s="1" t="s">
         <v>631</v>
@@ -16918,7 +16915,7 @@
         <v>1058</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="G185" s="1" t="s">
         <v>1059</v>
@@ -16948,7 +16945,7 @@
         <v>1062</v>
       </c>
       <c r="P185" s="1" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="V185" s="3" t="s">
         <v>1063</v>
@@ -16962,7 +16959,7 @@
         <v>2</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="C186" s="1" t="s">
         <v>631</v>
@@ -16974,7 +16971,7 @@
         <v>1058</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="G186" s="1" t="s">
         <v>1065</v>
@@ -17004,7 +17001,7 @@
         <v>1068</v>
       </c>
       <c r="P186" s="1" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="V186" s="3" t="s">
         <v>1069</v>
@@ -17018,7 +17015,7 @@
         <v>2</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="C187" s="1" t="s">
         <v>631</v>
@@ -17030,7 +17027,7 @@
         <v>1058</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="G187" s="1" t="s">
         <v>1071</v>
@@ -17060,7 +17057,7 @@
         <v>1074</v>
       </c>
       <c r="P187" s="1" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="V187" s="3" t="s">
         <v>1075</v>
@@ -17074,7 +17071,7 @@
         <v>2</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="C188" s="1" t="s">
         <v>631</v>
@@ -17086,7 +17083,7 @@
         <v>1058</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="G188" s="1" t="s">
         <v>1077</v>
@@ -17116,7 +17113,7 @@
         <v>1080</v>
       </c>
       <c r="P188" s="1" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="189" spans="1:23" ht="72">
@@ -17124,7 +17121,7 @@
         <v>2</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="C189" s="1" t="s">
         <v>631</v>
@@ -17136,7 +17133,7 @@
         <v>1058</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="G189" s="1" t="s">
         <v>1081</v>
@@ -17166,7 +17163,7 @@
         <v>1084</v>
       </c>
       <c r="P189" s="1" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="Q189" s="3" t="s">
         <v>1085</v>
@@ -17175,13 +17172,13 @@
         <v>1086</v>
       </c>
       <c r="S189" s="3" t="s">
+        <v>1417</v>
+      </c>
+      <c r="T189" s="3" t="s">
         <v>1418</v>
       </c>
-      <c r="T189" s="3" t="s">
+      <c r="U189" s="3" t="s">
         <v>1419</v>
-      </c>
-      <c r="U189" s="3" t="s">
-        <v>1420</v>
       </c>
     </row>
     <row r="190" spans="1:23" ht="100.8">
@@ -17189,7 +17186,7 @@
         <v>2</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="C190" s="1" t="s">
         <v>631</v>
@@ -17201,7 +17198,7 @@
         <v>1058</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="G190" s="1" t="s">
         <v>1087</v>
@@ -17231,7 +17228,7 @@
         <v>1090</v>
       </c>
       <c r="P190" s="1" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="Q190" s="3" t="s">
         <v>1091</v>
@@ -17240,13 +17237,13 @@
         <v>1092</v>
       </c>
       <c r="S190" s="3" t="s">
+        <v>1420</v>
+      </c>
+      <c r="T190" s="3" t="s">
+        <v>1422</v>
+      </c>
+      <c r="U190" s="3" t="s">
         <v>1421</v>
-      </c>
-      <c r="T190" s="3" t="s">
-        <v>1423</v>
-      </c>
-      <c r="U190" s="3" t="s">
-        <v>1422</v>
       </c>
     </row>
     <row r="191" spans="1:23" ht="144">
@@ -17254,7 +17251,7 @@
         <v>2</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="C191" s="1" t="s">
         <v>631</v>
@@ -17266,10 +17263,10 @@
         <v>1058</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="G191" s="1" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="H191" s="1" t="s">
         <v>1093</v>
@@ -17278,7 +17275,7 @@
         <v>1094</v>
       </c>
       <c r="J191" s="1" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="K191" s="2">
         <v>0</v>
@@ -17293,10 +17290,10 @@
         <v>0</v>
       </c>
       <c r="O191" s="1" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="P191" s="1" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="192" spans="1:23" ht="129.6">
@@ -17304,7 +17301,7 @@
         <v>2</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="C192" s="1" t="s">
         <v>631</v>
@@ -17316,7 +17313,7 @@
         <v>1058</v>
       </c>
       <c r="F192" s="1" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="G192" s="1" t="s">
         <v>1095</v>
@@ -17346,7 +17343,7 @@
         <v>1098</v>
       </c>
       <c r="P192" s="1" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="193" spans="1:23" ht="115.2">
@@ -17354,7 +17351,7 @@
         <v>2</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="C193" s="1" t="s">
         <v>631</v>
@@ -17366,7 +17363,7 @@
         <v>1058</v>
       </c>
       <c r="F193" s="1" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="G193" s="1" t="s">
         <v>1099</v>
@@ -17396,7 +17393,7 @@
         <v>1102</v>
       </c>
       <c r="P193" s="1" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="194" spans="1:23" ht="230.4">
@@ -17404,7 +17401,7 @@
         <v>2</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="C194" s="1" t="s">
         <v>631</v>
@@ -17416,7 +17413,7 @@
         <v>1058</v>
       </c>
       <c r="F194" s="1" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="G194" s="1" t="s">
         <v>1103</v>
@@ -17446,7 +17443,7 @@
         <v>1105</v>
       </c>
       <c r="P194" s="1" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="Q194" s="3" t="s">
         <v>1106</v>
@@ -17475,7 +17472,7 @@
         <v>2</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="C195" s="1" t="s">
         <v>631</v>
@@ -17487,7 +17484,7 @@
         <v>1058</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="G195" s="1" t="s">
         <v>1110</v>
@@ -17517,7 +17514,7 @@
         <v>1113</v>
       </c>
       <c r="P195" s="1" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="196" spans="1:23" ht="144">
@@ -17525,7 +17522,7 @@
         <v>2</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="C196" s="1" t="s">
         <v>631</v>
@@ -17537,7 +17534,7 @@
         <v>1058</v>
       </c>
       <c r="F196" s="1" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="G196" s="1" t="s">
         <v>1114</v>
@@ -17567,7 +17564,7 @@
         <v>1117</v>
       </c>
       <c r="P196" s="1" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="197" spans="1:23" ht="100.8">
@@ -17575,7 +17572,7 @@
         <v>2</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="C197" s="1" t="s">
         <v>631</v>
@@ -17587,7 +17584,7 @@
         <v>1058</v>
       </c>
       <c r="F197" s="1" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="G197" s="1" t="s">
         <v>1118</v>
@@ -17617,7 +17614,7 @@
         <v>1121</v>
       </c>
       <c r="P197" s="1" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="V197" s="3" t="s">
         <v>1122</v>
@@ -17631,7 +17628,7 @@
         <v>2</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="C198" s="1" t="s">
         <v>631</v>
@@ -17643,7 +17640,7 @@
         <v>1058</v>
       </c>
       <c r="F198" s="1" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="G198" s="1" t="s">
         <v>1124</v>
@@ -17673,7 +17670,7 @@
         <v>1127</v>
       </c>
       <c r="P198" s="1" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="V198" s="3" t="s">
         <v>1129</v>
@@ -17687,7 +17684,7 @@
         <v>2</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="C199" s="1" t="s">
         <v>631</v>
@@ -17699,7 +17696,7 @@
         <v>1058</v>
       </c>
       <c r="F199" s="1" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="G199" s="1" t="s">
         <v>1131</v>
@@ -17729,7 +17726,7 @@
         <v>1133</v>
       </c>
       <c r="P199" s="1" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="V199" s="3" t="s">
         <v>1134</v>
@@ -17743,13 +17740,13 @@
         <v>2</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="C200" s="1" t="s">
         <v>91</v>
       </c>
       <c r="F200" s="1" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="G200" s="1" t="s">
         <v>92</v>
@@ -17776,13 +17773,13 @@
         <v>0</v>
       </c>
       <c r="O200" s="1" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="P200" s="1" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="Q200" s="3" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="R200" s="3" t="s">
         <v>95</v>
@@ -17794,7 +17791,7 @@
         <v>97</v>
       </c>
       <c r="U200" s="3" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="201" spans="1:23" ht="158.4">
@@ -17802,13 +17799,13 @@
         <v>2</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="F201" s="1" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="G201" s="1" t="s">
         <v>98</v>
@@ -17835,13 +17832,13 @@
         <v>0</v>
       </c>
       <c r="O201" s="1" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="P201" s="1" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="Q201" s="3" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="R201" s="3" t="s">
         <v>100</v>
@@ -17853,7 +17850,7 @@
         <v>93</v>
       </c>
       <c r="U201" s="3" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="202" spans="1:23" ht="158.4">
@@ -17861,13 +17858,13 @@
         <v>2</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="C202" s="1" t="s">
         <v>91</v>
       </c>
       <c r="F202" s="1" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="G202" s="1" t="s">
         <v>101</v>
@@ -17894,13 +17891,13 @@
         <v>0</v>
       </c>
       <c r="O202" s="1" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="P202" s="1" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="Q202" s="3" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="R202" s="3" t="s">
         <v>103</v>
@@ -17912,7 +17909,7 @@
         <v>93</v>
       </c>
       <c r="U202" s="3" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="V202" s="3" t="s">
         <v>104</v>
@@ -17921,3405 +17918,9 @@
         <v>105</v>
       </c>
     </row>
-    <row r="310" spans="1:198">
-      <c r="A310" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="C310" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="D310" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="E310" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="G310" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="H310" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="I310" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="J310" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="K310" s="2" t="s">
-        <v>1136</v>
-      </c>
-      <c r="L310" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="M310" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="N310" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="Q310" s="3" t="s">
-        <v>1136</v>
-      </c>
-      <c r="X310" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="Y310" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="Z310" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AA310" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AB310" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AC310" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AD310" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AE310" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AF310" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AG310" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AH310" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AI310" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AJ310" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AK310" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AL310" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AM310" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AN310" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AO310" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AP310" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AQ310" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AR310" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AS310" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AT310" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AU310" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AV310" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AW310" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AX310" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AY310" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AZ310" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="BA310" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="BB310" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="BC310" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="BD310" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="BE310" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="BF310" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="BG310" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="BH310" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="BI310" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="BJ310" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="BK310" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="BL310" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="BM310" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="BN310" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="BO310" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="BP310" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="BQ310" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="BR310" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="BS310" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="BT310" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="BU310" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="BV310" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="BW310" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="BX310" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="BY310" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="BZ310" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="CA310" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="CB310" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="CC310" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="CD310" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="CE310" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="CF310" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="CG310" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="CH310" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="CI310" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="CJ310" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="CK310" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="CL310" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="CM310" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="CN310" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="CO310" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="CP310" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="CQ310" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="CR310" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="CS310" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="CT310" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="CU310" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="CV310" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="CW310" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="CX310" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="CY310" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="CZ310" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="DA310" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="DB310" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="DC310" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="DD310" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="DE310" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="DF310" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="DG310" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="DH310" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="DI310" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="DJ310" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="DK310" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="DL310" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="DM310" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="DN310" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="DO310" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="DP310" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="DQ310" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="DR310" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="DS310" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="DT310" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="DU310" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="DV310" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="DW310" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="DX310" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="DY310" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="DZ310" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="EA310" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="EB310" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="EC310" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="ED310" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="EE310" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="EF310" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="EG310" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="EH310" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="EI310" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="EJ310" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="EK310" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="EL310" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="EM310" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="EN310" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="EO310" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="EP310" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="EQ310" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="ER310" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="ES310" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="ET310" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="EU310" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="EV310" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="EW310" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="EX310" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="EY310" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="EZ310" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="FA310" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="FB310" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="FC310" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="FD310" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="FE310" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="FF310" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="FG310" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="FH310" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="FI310" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="FJ310" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="FK310" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="FL310" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="FM310" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="FN310" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="FO310" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="FP310" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="FQ310" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="FR310" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="FS310" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="FT310" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="FU310" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="FV310" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="FW310" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="FX310" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="FY310" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="FZ310" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="GA310" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="GB310" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="GC310" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="GD310" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="GE310" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="GF310" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="GG310" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="GH310" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="GI310" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="GJ310" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="GK310" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="GL310" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="GM310" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="GN310" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="GO310" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="GP310" s="1" t="s">
-        <v>1136</v>
-      </c>
-    </row>
-    <row r="311" spans="1:198">
-      <c r="A311" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="C311" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="D311" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="E311" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="G311" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="H311" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="I311" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="J311" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="K311" s="2" t="s">
-        <v>1136</v>
-      </c>
-      <c r="L311" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="M311" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="N311" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="Q311" s="3" t="s">
-        <v>1136</v>
-      </c>
-      <c r="X311" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="Y311" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="Z311" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AA311" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AB311" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AC311" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AD311" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AE311" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AF311" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AG311" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AH311" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AI311" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AJ311" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AK311" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AL311" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AM311" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AN311" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AO311" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AP311" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AQ311" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AR311" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AS311" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AT311" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AU311" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AV311" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AW311" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AX311" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AY311" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AZ311" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="BA311" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="BB311" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="BC311" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="BD311" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="BE311" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="BF311" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="BG311" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="BH311" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="BI311" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="BJ311" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="BK311" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="BL311" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="BM311" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="BN311" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="BO311" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="BP311" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="BQ311" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="BR311" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="BS311" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="BT311" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="BU311" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="BV311" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="BW311" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="BX311" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="BY311" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="BZ311" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="CA311" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="CB311" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="CC311" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="CD311" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="CE311" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="CF311" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="CG311" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="CH311" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="CI311" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="CJ311" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="CK311" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="CL311" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="CM311" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="CN311" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="CO311" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="CP311" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="CQ311" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="CR311" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="CS311" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="CT311" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="CU311" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="CV311" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="CW311" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="CX311" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="CY311" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="CZ311" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="DA311" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="DB311" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="DC311" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="DD311" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="DE311" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="DF311" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="DG311" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="DH311" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="DI311" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="DJ311" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="DK311" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="DL311" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="DM311" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="DN311" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="DO311" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="DP311" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="DQ311" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="DR311" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="DS311" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="DT311" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="DU311" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="DV311" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="DW311" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="DX311" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="DY311" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="DZ311" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="EA311" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="EB311" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="EC311" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="ED311" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="EE311" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="EF311" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="EG311" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="EH311" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="EI311" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="EJ311" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="EK311" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="EL311" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="EM311" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="EN311" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="EO311" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="EP311" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="EQ311" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="ER311" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="ES311" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="ET311" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="EU311" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="EV311" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="EW311" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="EX311" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="EY311" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="EZ311" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="FA311" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="FB311" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="FC311" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="FD311" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="FE311" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="FF311" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="FG311" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="FH311" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="FI311" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="FJ311" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="FK311" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="FL311" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="FM311" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="FN311" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="FO311" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="FP311" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="FQ311" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="FR311" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="FS311" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="FT311" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="FU311" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="FV311" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="FW311" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="FX311" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="FY311" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="FZ311" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="GA311" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="GB311" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="GC311" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="GD311" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="GE311" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="GF311" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="GG311" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="GH311" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="GI311" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="GJ311" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="GK311" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="GL311" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="GM311" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="GN311" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="GO311" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="GP311" s="1" t="s">
-        <v>1136</v>
-      </c>
-    </row>
-    <row r="312" spans="1:198">
-      <c r="A312" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="C312" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="D312" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="E312" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="G312" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="H312" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="I312" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="J312" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="K312" s="2" t="s">
-        <v>1136</v>
-      </c>
-      <c r="L312" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="M312" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="N312" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="Q312" s="3" t="s">
-        <v>1136</v>
-      </c>
-      <c r="X312" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="Y312" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="Z312" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AA312" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AB312" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AC312" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AD312" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AE312" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AF312" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AG312" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AH312" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AI312" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AJ312" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AK312" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AL312" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AM312" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AN312" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AO312" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AP312" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AQ312" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AR312" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AS312" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AT312" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AU312" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AV312" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AW312" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AX312" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AY312" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AZ312" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="BA312" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="BB312" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="BC312" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="BD312" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="BE312" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="BF312" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="BG312" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="BH312" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="BI312" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="BJ312" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="BK312" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="BL312" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="BM312" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="BN312" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="BO312" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="BP312" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="BQ312" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="BR312" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="BS312" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="BT312" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="BU312" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="BV312" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="BW312" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="BX312" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="BY312" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="BZ312" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="CA312" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="CB312" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="CC312" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="CD312" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="CE312" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="CF312" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="CG312" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="CH312" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="CI312" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="CJ312" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="CK312" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="CL312" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="CM312" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="CN312" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="CO312" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="CP312" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="CQ312" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="CR312" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="CS312" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="CT312" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="CU312" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="CV312" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="CW312" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="CX312" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="CY312" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="CZ312" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="DA312" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="DB312" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="DC312" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="DD312" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="DE312" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="DF312" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="DG312" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="DH312" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="DI312" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="DJ312" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="DK312" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="DL312" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="DM312" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="DN312" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="DO312" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="DP312" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="DQ312" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="DR312" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="DS312" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="DT312" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="DU312" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="DV312" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="DW312" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="DX312" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="DY312" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="DZ312" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="EA312" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="EB312" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="EC312" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="ED312" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="EE312" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="EF312" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="EG312" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="EH312" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="EI312" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="EJ312" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="EK312" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="EL312" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="EM312" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="EN312" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="EO312" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="EP312" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="EQ312" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="ER312" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="ES312" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="ET312" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="EU312" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="EV312" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="EW312" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="EX312" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="EY312" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="EZ312" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="FA312" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="FB312" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="FC312" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="FD312" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="FE312" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="FF312" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="FG312" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="FH312" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="FI312" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="FJ312" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="FK312" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="FL312" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="FM312" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="FN312" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="FO312" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="FP312" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="FQ312" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="FR312" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="FS312" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="FT312" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="FU312" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="FV312" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="FW312" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="FX312" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="FY312" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="FZ312" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="GA312" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="GB312" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="GC312" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="GD312" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="GE312" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="GF312" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="GG312" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="GH312" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="GI312" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="GJ312" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="GK312" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="GL312" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="GM312" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="GN312" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="GO312" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="GP312" s="1" t="s">
-        <v>1136</v>
-      </c>
-    </row>
-    <row r="313" spans="1:198">
-      <c r="A313" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="C313" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="D313" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="E313" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="G313" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="H313" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="I313" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="J313" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="K313" s="2" t="s">
-        <v>1136</v>
-      </c>
-      <c r="L313" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="M313" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="N313" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="Q313" s="3" t="s">
-        <v>1136</v>
-      </c>
-      <c r="X313" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="Y313" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="Z313" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AA313" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AB313" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AC313" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AD313" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AE313" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AF313" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AG313" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AH313" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AI313" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AJ313" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AK313" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AL313" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AM313" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AN313" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AO313" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AP313" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AQ313" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AR313" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AS313" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AT313" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AU313" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AV313" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AW313" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AX313" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AY313" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AZ313" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="BA313" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="BB313" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="BC313" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="BD313" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="BE313" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="BF313" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="BG313" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="BH313" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="BI313" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="BJ313" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="BK313" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="BL313" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="BM313" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="BN313" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="BO313" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="BP313" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="BQ313" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="BR313" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="BS313" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="BT313" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="BU313" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="BV313" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="BW313" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="BX313" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="BY313" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="BZ313" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="CA313" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="CB313" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="CC313" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="CD313" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="CE313" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="CF313" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="CG313" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="CH313" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="CI313" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="CJ313" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="CK313" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="CL313" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="CM313" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="CN313" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="CO313" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="CP313" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="CQ313" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="CR313" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="CS313" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="CT313" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="CU313" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="CV313" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="CW313" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="CX313" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="CY313" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="CZ313" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="DA313" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="DB313" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="DC313" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="DD313" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="DE313" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="DF313" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="DG313" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="DH313" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="DI313" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="DJ313" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="DK313" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="DL313" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="DM313" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="DN313" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="DO313" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="DP313" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="DQ313" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="DR313" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="DS313" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="DT313" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="DU313" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="DV313" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="DW313" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="DX313" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="DY313" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="DZ313" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="EA313" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="EB313" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="EC313" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="ED313" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="EE313" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="EF313" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="EG313" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="EH313" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="EI313" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="EJ313" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="EK313" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="EL313" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="EM313" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="EN313" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="EO313" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="EP313" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="EQ313" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="ER313" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="ES313" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="ET313" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="EU313" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="EV313" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="EW313" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="EX313" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="EY313" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="EZ313" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="FA313" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="FB313" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="FC313" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="FD313" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="FE313" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="FF313" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="FG313" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="FH313" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="FI313" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="FJ313" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="FK313" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="FL313" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="FM313" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="FN313" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="FO313" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="FP313" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="FQ313" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="FR313" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="FS313" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="FT313" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="FU313" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="FV313" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="FW313" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="FX313" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="FY313" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="FZ313" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="GA313" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="GB313" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="GC313" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="GD313" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="GE313" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="GF313" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="GG313" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="GH313" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="GI313" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="GJ313" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="GK313" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="GL313" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="GM313" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="GN313" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="GO313" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="GP313" s="1" t="s">
-        <v>1136</v>
-      </c>
-    </row>
-    <row r="314" spans="1:198">
-      <c r="A314" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="C314" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="D314" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="E314" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="G314" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="H314" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="I314" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="J314" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="K314" s="2" t="s">
-        <v>1136</v>
-      </c>
-      <c r="L314" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="M314" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="N314" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="Q314" s="3" t="s">
-        <v>1136</v>
-      </c>
-      <c r="X314" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="Y314" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="Z314" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AA314" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AB314" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AC314" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AD314" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AE314" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AF314" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AG314" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AH314" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AI314" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AJ314" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AK314" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AL314" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AM314" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AN314" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AO314" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AP314" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AQ314" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AR314" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AS314" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AT314" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AU314" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AV314" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AW314" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AX314" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AY314" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AZ314" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="BA314" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="BB314" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="BC314" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="BD314" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="BE314" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="BF314" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="BG314" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="BH314" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="BI314" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="BJ314" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="BK314" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="BL314" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="BM314" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="BN314" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="BO314" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="BP314" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="BQ314" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="BR314" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="BS314" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="BT314" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="BU314" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="BV314" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="BW314" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="BX314" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="BY314" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="BZ314" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="CA314" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="CB314" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="CC314" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="CD314" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="CE314" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="CF314" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="CG314" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="CH314" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="CI314" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="CJ314" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="CK314" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="CL314" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="CM314" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="CN314" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="CO314" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="CP314" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="CQ314" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="CR314" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="CS314" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="CT314" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="CU314" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="CV314" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="CW314" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="CX314" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="CY314" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="CZ314" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="DA314" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="DB314" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="DC314" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="DD314" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="DE314" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="DF314" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="DG314" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="DH314" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="DI314" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="DJ314" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="DK314" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="DL314" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="DM314" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="DN314" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="DO314" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="DP314" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="DQ314" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="DR314" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="DS314" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="DT314" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="DU314" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="DV314" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="DW314" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="DX314" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="DY314" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="DZ314" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="EA314" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="EB314" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="EC314" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="ED314" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="EE314" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="EF314" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="EG314" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="EH314" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="EI314" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="EJ314" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="EK314" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="EL314" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="EM314" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="EN314" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="EO314" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="EP314" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="EQ314" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="ER314" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="ES314" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="ET314" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="EU314" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="EV314" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="EW314" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="EX314" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="EY314" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="EZ314" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="FA314" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="FB314" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="FC314" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="FD314" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="FE314" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="FF314" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="FG314" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="FH314" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="FI314" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="FJ314" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="FK314" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="FL314" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="FM314" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="FN314" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="FO314" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="FP314" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="FQ314" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="FR314" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="FS314" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="FT314" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="FU314" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="FV314" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="FW314" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="FX314" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="FY314" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="FZ314" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="GA314" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="GB314" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="GC314" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="GD314" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="GE314" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="GF314" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="GG314" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="GH314" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="GI314" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="GJ314" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="GK314" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="GL314" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="GM314" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="GN314" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="GO314" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="GP314" s="1" t="s">
-        <v>1136</v>
-      </c>
-    </row>
-    <row r="315" spans="1:198">
-      <c r="A315" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="C315" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="D315" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="E315" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="G315" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="H315" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="I315" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="J315" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="K315" s="2" t="s">
-        <v>1136</v>
-      </c>
-      <c r="L315" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="M315" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="N315" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="Q315" s="3" t="s">
-        <v>1136</v>
-      </c>
-      <c r="X315" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="Y315" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="Z315" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AA315" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AB315" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AC315" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AD315" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AE315" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AF315" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AG315" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AH315" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AI315" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AJ315" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AK315" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AL315" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AM315" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AN315" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AO315" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AP315" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AQ315" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AR315" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AS315" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AT315" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AU315" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AV315" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AW315" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AX315" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AY315" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AZ315" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="BA315" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="BB315" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="BC315" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="BD315" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="BE315" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="BF315" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="BG315" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="BH315" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="BI315" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="BJ315" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="BK315" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="BL315" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="BM315" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="BN315" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="BO315" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="BP315" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="BQ315" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="BR315" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="BS315" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="BT315" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="BU315" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="BV315" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="BW315" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="BX315" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="BY315" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="BZ315" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="CA315" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="CB315" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="CC315" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="CD315" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="CE315" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="CF315" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="CG315" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="CH315" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="CI315" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="CJ315" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="CK315" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="CL315" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="CM315" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="CN315" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="CO315" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="CP315" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="CQ315" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="CR315" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="CS315" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="CT315" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="CU315" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="CV315" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="CW315" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="CX315" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="CY315" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="CZ315" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="DA315" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="DB315" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="DC315" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="DD315" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="DE315" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="DF315" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="DG315" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="DH315" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="DI315" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="DJ315" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="DK315" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="DL315" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="DM315" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="DN315" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="DO315" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="DP315" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="DQ315" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="DR315" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="DS315" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="DT315" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="DU315" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="DV315" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="DW315" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="DX315" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="DY315" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="DZ315" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="EA315" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="EB315" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="EC315" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="ED315" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="EE315" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="EF315" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="EG315" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="EH315" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="EI315" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="EJ315" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="EK315" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="EL315" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="EM315" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="EN315" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="EO315" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="EP315" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="EQ315" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="ER315" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="ES315" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="ET315" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="EU315" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="EV315" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="EW315" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="EX315" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="EY315" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="EZ315" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="FA315" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="FB315" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="FC315" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="FD315" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="FE315" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="FF315" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="FG315" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="FH315" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="FI315" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="FJ315" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="FK315" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="FL315" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="FM315" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="FN315" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="FO315" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="FP315" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="FQ315" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="FR315" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="FS315" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="FT315" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="FU315" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="FV315" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="FW315" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="FX315" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="FY315" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="FZ315" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="GA315" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="GB315" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="GC315" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="GD315" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="GE315" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="GF315" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="GG315" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="GH315" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="GI315" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="GJ315" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="GK315" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="GL315" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="GM315" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="GN315" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="GO315" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="GP315" s="1" t="s">
-        <v>1136</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:W315">
-    <sortCondition ref="B1:B315"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:W202">
+    <sortCondition ref="B1:B202"/>
   </sortState>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
